--- a/link builder.xlsx
+++ b/link builder.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>b829/aberhart/about/contact/additional-staff.pdf</t>
   </si>
@@ -342,57 +342,15 @@
     <t>b829/aberhart/main/exams/exam-schedule.pdf</t>
   </si>
   <si>
-    <t>b829/aberhart/main/news/athletic-gear-purchase.pdf</t>
-  </si>
-  <si>
-    <t>b829/aberhart/main/news/grad-banquet-order-form.pdf</t>
-  </si>
-  <si>
-    <t>b829/aberhart/main/news/grad-banquet-table-seating-form.pdf</t>
-  </si>
-  <si>
-    <t>b829/aberhart/main/news/grad-bulletin-1.pdf</t>
-  </si>
-  <si>
-    <t>b829/aberhart/main/news/grad-bulletin-2.pdf</t>
-  </si>
-  <si>
-    <t>b829/aberhart/main/news/grad-info-booklet.pdf</t>
-  </si>
-  <si>
-    <t>b829/aberhart/main/news/grad-procedures.pdf</t>
-  </si>
-  <si>
-    <t>b829/aberhart/main/news/grad-table-seating-form.pdf</t>
-  </si>
-  <si>
-    <t>b829/aberhart/main/news/homelogic-parent-letter.pdf</t>
-  </si>
-  <si>
     <t>b829/aberhart/main/news/lifetouch-program.pdf</t>
   </si>
   <si>
-    <t>b829/aberhart/main/news/meet-the-teacher.pdf</t>
-  </si>
-  <si>
-    <t>b829/aberhart/main/news/new-principal-letter.pdf</t>
-  </si>
-  <si>
-    <t>b829/aberhart/main/news/open-houses.pdf</t>
-  </si>
-  <si>
-    <t>b829/aberhart/main/news/spain-trip-2014.jpg</t>
-  </si>
-  <si>
     <t>b829/aberhart/main/news/spain-trip-2014.pdf</t>
   </si>
   <si>
     <t>b829/aberhart/main/news/summer-package/administration-information.pdf</t>
   </si>
   <si>
-    <t>b829/aberhart/main/news/summer-package/school-opening-procedures.pdf</t>
-  </si>
-  <si>
     <t>b829/aberhart/main/news/summer-package/welcome-back-from-guidance.pdf</t>
   </si>
   <si>
@@ -595,6 +553,42 @@
   </si>
   <si>
     <t>LINK</t>
+  </si>
+  <si>
+    <t>b829/aberhart/main/news/ongoing/homelogic-parent-letter.pdf</t>
+  </si>
+  <si>
+    <t>b829/aberhart/main/news/upcoming/grad-banquet-order-form.pdf</t>
+  </si>
+  <si>
+    <t>b829/aberhart/main/news/upcoming/grad-banquet-table-seating-form.pdf</t>
+  </si>
+  <si>
+    <t>b829/aberhart/main/news/upcoming/grad-bulletin-1.pdf</t>
+  </si>
+  <si>
+    <t>b829/aberhart/main/news/upcoming/grad-bulletin-2.pdf</t>
+  </si>
+  <si>
+    <t>b829/aberhart/main/news/upcoming/grad-info-booklet.pdf</t>
+  </si>
+  <si>
+    <t>b829/aberhart/main/news/upcoming/grad-procedures.pdf</t>
+  </si>
+  <si>
+    <t>b829/aberhart/main/news/upcoming/grad-table-seating-form.pdf</t>
+  </si>
+  <si>
+    <t>b829/aberhart/main/news/whats-new/new-principal-letter.pdf</t>
+  </si>
+  <si>
+    <t>b829/aberhart/main/news/whats-new/student-services-news.pdf</t>
+  </si>
+  <si>
+    <t>b829/aberhart/transportation/pdf-files/rebate-info.pdf</t>
+  </si>
+  <si>
+    <t>b829/aberhart/transportation/pdf-files/rebate-process.pdf</t>
   </si>
 </sst>
 </file>
@@ -933,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U178"/>
+  <dimension ref="B1:U176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="B165" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,49 +953,49 @@
   <sheetData>
     <row r="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>175</v>
+      </c>
+      <c r="R1" t="s">
+        <v>176</v>
+      </c>
+      <c r="T1" t="s">
         <v>177</v>
-      </c>
-      <c r="D1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J1" t="s">
-        <v>184</v>
-      </c>
-      <c r="L1" t="s">
-        <v>185</v>
-      </c>
-      <c r="N1" t="s">
-        <v>186</v>
-      </c>
-      <c r="O1" t="s">
-        <v>187</v>
-      </c>
-      <c r="P1" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>189</v>
-      </c>
-      <c r="R1" t="s">
-        <v>190</v>
-      </c>
-      <c r="T1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
@@ -7243,7 +7237,7 @@
     </row>
     <row r="79" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C79">
         <f t="shared" si="28"/>
@@ -7275,11 +7269,11 @@
       </c>
       <c r="J79" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>Forms</v>
       </c>
       <c r="K79">
         <f t="shared" si="44"/>
-        <v>-1</v>
+        <v>40</v>
       </c>
       <c r="L79" t="str">
         <f t="shared" si="45"/>
@@ -7291,15 +7285,15 @@
       </c>
       <c r="N79">
         <f t="shared" si="30"/>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="O79" t="str">
         <f t="shared" si="31"/>
-        <v>parent-letter.pdf</v>
+        <v>ack-of-risk-pe-10.pdf</v>
       </c>
       <c r="P79" t="str">
         <f t="shared" si="32"/>
-        <v>parent-letter</v>
+        <v>ack-of-risk-pe-10</v>
       </c>
       <c r="Q79" t="str">
         <f t="shared" si="33"/>
@@ -7307,7 +7301,7 @@
       </c>
       <c r="R79" t="str">
         <f t="shared" si="34"/>
-        <v>Parent Letter</v>
+        <v>Ack Of Risk Pe 10</v>
       </c>
       <c r="S79" t="str">
         <f t="shared" si="46"/>
@@ -7315,16 +7309,16 @@
       </c>
       <c r="T79" t="str">
         <f t="shared" si="35"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/departments/phys-ed/parent-letter.pdf"&gt;Parent Letter&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/departments/phys-ed/forms/ack-of-risk-pe-10.pdf"&gt;Ack Of Risk Pe 10&lt;/a&gt;</v>
       </c>
       <c r="U79" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/departments/phys-ed/parent-letter.pdf"&gt;Parent Letter&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/departments/phys-ed/forms/ack-of-risk-pe-10.pdf"&gt;Ack Of Risk Pe 10&lt;/a&gt;</v>
       </c>
     </row>
     <row r="80" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C80">
         <f t="shared" si="28"/>
@@ -7376,11 +7370,11 @@
       </c>
       <c r="O80" t="str">
         <f t="shared" si="31"/>
-        <v>ack-of-risk-pe-10.pdf</v>
+        <v>ack-of-risk-pe-20.pdf</v>
       </c>
       <c r="P80" t="str">
         <f t="shared" si="32"/>
-        <v>ack-of-risk-pe-10</v>
+        <v>ack-of-risk-pe-20</v>
       </c>
       <c r="Q80" t="str">
         <f t="shared" si="33"/>
@@ -7388,7 +7382,7 @@
       </c>
       <c r="R80" t="str">
         <f t="shared" si="34"/>
-        <v>Ack Of Risk Pe 10</v>
+        <v>Ack Of Risk Pe 20</v>
       </c>
       <c r="S80" t="str">
         <f t="shared" si="46"/>
@@ -7396,16 +7390,16 @@
       </c>
       <c r="T80" t="str">
         <f t="shared" si="35"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/departments/phys-ed/forms/ack-of-risk-pe-10.pdf"&gt;Ack Of Risk Pe 10&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/departments/phys-ed/forms/ack-of-risk-pe-20.pdf"&gt;Ack Of Risk Pe 20&lt;/a&gt;</v>
       </c>
       <c r="U80" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/departments/phys-ed/forms/ack-of-risk-pe-10.pdf"&gt;Ack Of Risk Pe 10&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/departments/phys-ed/forms/ack-of-risk-pe-20.pdf"&gt;Ack Of Risk Pe 20&lt;/a&gt;</v>
       </c>
     </row>
     <row r="81" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C81">
         <f t="shared" si="28"/>
@@ -7457,11 +7451,11 @@
       </c>
       <c r="O81" t="str">
         <f t="shared" si="31"/>
-        <v>ack-of-risk-pe-20.pdf</v>
+        <v>ack-of-risk-pe-30.pdf</v>
       </c>
       <c r="P81" t="str">
         <f t="shared" si="32"/>
-        <v>ack-of-risk-pe-20</v>
+        <v>ack-of-risk-pe-30</v>
       </c>
       <c r="Q81" t="str">
         <f t="shared" si="33"/>
@@ -7469,7 +7463,7 @@
       </c>
       <c r="R81" t="str">
         <f t="shared" si="34"/>
-        <v>Ack Of Risk Pe 20</v>
+        <v>Ack Of Risk Pe 30</v>
       </c>
       <c r="S81" t="str">
         <f t="shared" si="46"/>
@@ -7477,16 +7471,16 @@
       </c>
       <c r="T81" t="str">
         <f t="shared" si="35"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/departments/phys-ed/forms/ack-of-risk-pe-20.pdf"&gt;Ack Of Risk Pe 20&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/departments/phys-ed/forms/ack-of-risk-pe-30.pdf"&gt;Ack Of Risk Pe 30&lt;/a&gt;</v>
       </c>
       <c r="U81" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/departments/phys-ed/forms/ack-of-risk-pe-20.pdf"&gt;Ack Of Risk Pe 20&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/departments/phys-ed/forms/ack-of-risk-pe-30.pdf"&gt;Ack Of Risk Pe 30&lt;/a&gt;</v>
       </c>
     </row>
     <row r="82" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C82">
         <f t="shared" si="28"/>
@@ -7538,11 +7532,11 @@
       </c>
       <c r="O82" t="str">
         <f t="shared" si="31"/>
-        <v>ack-of-risk-pe-30.pdf</v>
+        <v>ack-of-risk-sports-pro.pdf</v>
       </c>
       <c r="P82" t="str">
         <f t="shared" si="32"/>
-        <v>ack-of-risk-pe-30</v>
+        <v>ack-of-risk-sports-pro</v>
       </c>
       <c r="Q82" t="str">
         <f t="shared" si="33"/>
@@ -7550,7 +7544,7 @@
       </c>
       <c r="R82" t="str">
         <f t="shared" si="34"/>
-        <v>Ack Of Risk Pe 30</v>
+        <v>Ack Of Risk Sports Pro</v>
       </c>
       <c r="S82" t="str">
         <f t="shared" si="46"/>
@@ -7558,16 +7552,16 @@
       </c>
       <c r="T82" t="str">
         <f t="shared" si="35"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/departments/phys-ed/forms/ack-of-risk-pe-30.pdf"&gt;Ack Of Risk Pe 30&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/departments/phys-ed/forms/ack-of-risk-sports-pro.pdf"&gt;Ack Of Risk Sports Pro&lt;/a&gt;</v>
       </c>
       <c r="U82" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/departments/phys-ed/forms/ack-of-risk-pe-30.pdf"&gt;Ack Of Risk Pe 30&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/departments/phys-ed/forms/ack-of-risk-sports-pro.pdf"&gt;Ack Of Risk Sports Pro&lt;/a&gt;</v>
       </c>
     </row>
     <row r="83" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C83">
         <f t="shared" si="28"/>
@@ -7619,11 +7613,11 @@
       </c>
       <c r="O83" t="str">
         <f t="shared" si="31"/>
-        <v>ack-of-risk-sports-pro.pdf</v>
+        <v>swimming-ability.pdf</v>
       </c>
       <c r="P83" t="str">
         <f t="shared" si="32"/>
-        <v>ack-of-risk-sports-pro</v>
+        <v>swimming-ability</v>
       </c>
       <c r="Q83" t="str">
         <f t="shared" si="33"/>
@@ -7631,7 +7625,7 @@
       </c>
       <c r="R83" t="str">
         <f t="shared" si="34"/>
-        <v>Ack Of Risk Sports Pro</v>
+        <v>Swimming Ability</v>
       </c>
       <c r="S83" t="str">
         <f t="shared" si="46"/>
@@ -7639,16 +7633,16 @@
       </c>
       <c r="T83" t="str">
         <f t="shared" si="35"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/departments/phys-ed/forms/ack-of-risk-sports-pro.pdf"&gt;Ack Of Risk Sports Pro&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/departments/phys-ed/forms/swimming-ability.pdf"&gt;Swimming Ability&lt;/a&gt;</v>
       </c>
       <c r="U83" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/departments/phys-ed/forms/ack-of-risk-sports-pro.pdf"&gt;Ack Of Risk Sports Pro&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/departments/phys-ed/forms/swimming-ability.pdf"&gt;Swimming Ability&lt;/a&gt;</v>
       </c>
     </row>
     <row r="84" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C84">
         <f t="shared" si="28"/>
@@ -7680,11 +7674,11 @@
       </c>
       <c r="J84" t="str">
         <f t="shared" si="43"/>
-        <v>Forms</v>
+        <v/>
       </c>
       <c r="K84">
         <f t="shared" si="44"/>
-        <v>40</v>
+        <v>-1</v>
       </c>
       <c r="L84" t="str">
         <f t="shared" si="45"/>
@@ -7696,15 +7690,15 @@
       </c>
       <c r="N84">
         <f t="shared" si="30"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="O84" t="str">
         <f t="shared" si="31"/>
-        <v>swimming-ability.pdf</v>
+        <v>parent-letter.pdf</v>
       </c>
       <c r="P84" t="str">
         <f t="shared" si="32"/>
-        <v>swimming-ability</v>
+        <v>parent-letter</v>
       </c>
       <c r="Q84" t="str">
         <f t="shared" si="33"/>
@@ -7712,7 +7706,7 @@
       </c>
       <c r="R84" t="str">
         <f t="shared" si="34"/>
-        <v>Swimming Ability</v>
+        <v>Parent Letter</v>
       </c>
       <c r="S84" t="str">
         <f t="shared" si="46"/>
@@ -7720,11 +7714,11 @@
       </c>
       <c r="T84" t="str">
         <f t="shared" si="35"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/departments/phys-ed/forms/swimming-ability.pdf"&gt;Swimming Ability&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/departments/phys-ed/parent-letter.pdf"&gt;Parent Letter&lt;/a&gt;</v>
       </c>
       <c r="U84" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/departments/phys-ed/forms/swimming-ability.pdf"&gt;Swimming Ability&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/departments/phys-ed/parent-letter.pdf"&gt;Parent Letter&lt;/a&gt;</v>
       </c>
     </row>
     <row r="85" spans="2:21" x14ac:dyDescent="0.25">
@@ -9025,7 +9019,7 @@
     </row>
     <row r="101" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C101">
         <f t="shared" si="47"/>
@@ -9049,11 +9043,11 @@
       </c>
       <c r="H101" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>Calendars</v>
       </c>
       <c r="I101">
         <f t="shared" si="42"/>
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="J101" t="str">
         <f t="shared" si="43"/>
@@ -9073,15 +9067,15 @@
       </c>
       <c r="N101">
         <f t="shared" si="49"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="O101" t="str">
         <f t="shared" si="50"/>
-        <v>crisis-information.pdf</v>
+        <v>abecalendar.pdf</v>
       </c>
       <c r="P101" t="str">
         <f t="shared" si="51"/>
-        <v>crisis-information</v>
+        <v>abecalendar</v>
       </c>
       <c r="Q101" t="str">
         <f t="shared" si="52"/>
@@ -9089,24 +9083,24 @@
       </c>
       <c r="R101" t="str">
         <f t="shared" si="53"/>
-        <v>Crisis Information</v>
+        <v>Abecalendar</v>
       </c>
       <c r="S101" t="str">
         <f t="shared" si="46"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
+        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspCalendars&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
       </c>
       <c r="T101" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/crisis-information.pdf"&gt;Crisis Information&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/main/calendars/abecalendar.pdf"&gt;Abecalendar&lt;/a&gt;</v>
       </c>
       <c r="U101" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/crisis-information.pdf"&gt;Crisis Information&lt;/a&gt;</v>
+        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspCalendars&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/calendars/abecalendar.pdf"&gt;Abecalendar&lt;/a&gt;</v>
       </c>
     </row>
     <row r="102" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C102">
         <f t="shared" si="47"/>
@@ -9130,11 +9124,11 @@
       </c>
       <c r="H102" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>Calendars</v>
       </c>
       <c r="I102">
         <f t="shared" si="42"/>
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="J102" t="str">
         <f t="shared" si="43"/>
@@ -9154,15 +9148,15 @@
       </c>
       <c r="N102">
         <f t="shared" si="49"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="O102" t="str">
         <f t="shared" si="50"/>
-        <v>student-bulletin.pdf</v>
+        <v>csi-about.pdf</v>
       </c>
       <c r="P102" t="str">
         <f t="shared" si="51"/>
-        <v>student-bulletin</v>
+        <v>csi-about</v>
       </c>
       <c r="Q102" t="str">
         <f t="shared" si="52"/>
@@ -9170,7 +9164,7 @@
       </c>
       <c r="R102" t="str">
         <f t="shared" si="53"/>
-        <v>Student Bulletin</v>
+        <v>Csi About</v>
       </c>
       <c r="S102" t="str">
         <f t="shared" si="46"/>
@@ -9178,16 +9172,16 @@
       </c>
       <c r="T102" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/student-bulletin.pdf"&gt;Student Bulletin&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/main/calendars/csi-about.pdf"&gt;Csi About&lt;/a&gt;</v>
       </c>
       <c r="U102" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/student-bulletin.pdf"&gt;Student Bulletin&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/calendars/csi-about.pdf"&gt;Csi About&lt;/a&gt;</v>
       </c>
     </row>
     <row r="103" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C103">
         <f t="shared" si="47"/>
@@ -9211,11 +9205,11 @@
       </c>
       <c r="H103" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>Calendars</v>
       </c>
       <c r="I103">
         <f t="shared" si="42"/>
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="J103" t="str">
         <f t="shared" si="43"/>
@@ -9235,15 +9229,15 @@
       </c>
       <c r="N103">
         <f t="shared" si="49"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="O103" t="str">
         <f t="shared" si="50"/>
-        <v>student-handbook.pdf</v>
+        <v>csi-now.pdf</v>
       </c>
       <c r="P103" t="str">
         <f t="shared" si="51"/>
-        <v>student-handbook</v>
+        <v>csi-now</v>
       </c>
       <c r="Q103" t="str">
         <f t="shared" si="52"/>
@@ -9251,7 +9245,7 @@
       </c>
       <c r="R103" t="str">
         <f t="shared" si="53"/>
-        <v>Student Handbook</v>
+        <v>Csi Now</v>
       </c>
       <c r="S103" t="str">
         <f t="shared" si="46"/>
@@ -9259,16 +9253,16 @@
       </c>
       <c r="T103" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/student-handbook.pdf"&gt;Student Handbook&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/main/calendars/csi-now.pdf"&gt;Csi Now&lt;/a&gt;</v>
       </c>
       <c r="U103" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/student-handbook.pdf"&gt;Student Handbook&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/calendars/csi-now.pdf"&gt;Csi Now&lt;/a&gt;</v>
       </c>
     </row>
     <row r="104" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="C104">
         <f t="shared" si="47"/>
@@ -9292,11 +9286,11 @@
       </c>
       <c r="H104" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>Calendars</v>
       </c>
       <c r="I104">
         <f t="shared" si="42"/>
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="J104" t="str">
         <f t="shared" si="43"/>
@@ -9316,15 +9310,15 @@
       </c>
       <c r="N104">
         <f t="shared" si="49"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="O104" t="str">
         <f t="shared" si="50"/>
-        <v>timetable.pdf</v>
+        <v>csi-soon.pdf</v>
       </c>
       <c r="P104" t="str">
         <f t="shared" si="51"/>
-        <v>timetable</v>
+        <v>csi-soon</v>
       </c>
       <c r="Q104" t="str">
         <f t="shared" si="52"/>
@@ -9332,7 +9326,7 @@
       </c>
       <c r="R104" t="str">
         <f t="shared" si="53"/>
-        <v>Timetable</v>
+        <v>Csi Soon</v>
       </c>
       <c r="S104" t="str">
         <f t="shared" si="46"/>
@@ -9340,16 +9334,16 @@
       </c>
       <c r="T104" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/timetable.pdf"&gt;Timetable&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/main/calendars/csi-soon.pdf"&gt;Csi Soon&lt;/a&gt;</v>
       </c>
       <c r="U104" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/timetable.pdf"&gt;Timetable&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/calendars/csi-soon.pdf"&gt;Csi Soon&lt;/a&gt;</v>
       </c>
     </row>
     <row r="105" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C105">
         <f t="shared" si="47"/>
@@ -9373,11 +9367,11 @@
       </c>
       <c r="H105" t="str">
         <f t="shared" si="41"/>
-        <v>Calendars</v>
+        <v/>
       </c>
       <c r="I105">
         <f t="shared" si="42"/>
-        <v>29</v>
+        <v>-1</v>
       </c>
       <c r="J105" t="str">
         <f t="shared" si="43"/>
@@ -9397,15 +9391,15 @@
       </c>
       <c r="N105">
         <f t="shared" si="49"/>
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="O105" t="str">
         <f t="shared" si="50"/>
-        <v>abecalendar.pdf</v>
+        <v>crisis-information.pdf</v>
       </c>
       <c r="P105" t="str">
         <f t="shared" si="51"/>
-        <v>abecalendar</v>
+        <v>crisis-information</v>
       </c>
       <c r="Q105" t="str">
         <f t="shared" si="52"/>
@@ -9413,24 +9407,24 @@
       </c>
       <c r="R105" t="str">
         <f t="shared" si="53"/>
-        <v>Abecalendar</v>
+        <v>Crisis Information</v>
       </c>
       <c r="S105" t="str">
         <f t="shared" si="46"/>
-        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspCalendars&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
       </c>
       <c r="T105" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/calendars/abecalendar.pdf"&gt;Abecalendar&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/main/crisis-information.pdf"&gt;Crisis Information&lt;/a&gt;</v>
       </c>
       <c r="U105" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspCalendars&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/calendars/abecalendar.pdf"&gt;Abecalendar&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/crisis-information.pdf"&gt;Crisis Information&lt;/a&gt;</v>
       </c>
     </row>
     <row r="106" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C106">
         <f t="shared" si="47"/>
@@ -9454,11 +9448,11 @@
       </c>
       <c r="H106" t="str">
         <f t="shared" si="41"/>
-        <v>Calendars</v>
+        <v>Exams</v>
       </c>
       <c r="I106">
         <f t="shared" si="42"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J106" t="str">
         <f t="shared" si="43"/>
@@ -9478,15 +9472,15 @@
       </c>
       <c r="N106">
         <f t="shared" si="49"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O106" t="str">
         <f t="shared" si="50"/>
-        <v>csi-about.pdf</v>
+        <v>ell-students-exam-information.pdf</v>
       </c>
       <c r="P106" t="str">
         <f t="shared" si="51"/>
-        <v>csi-about</v>
+        <v>ell-students-exam-information</v>
       </c>
       <c r="Q106" t="str">
         <f t="shared" si="52"/>
@@ -9494,24 +9488,24 @@
       </c>
       <c r="R106" t="str">
         <f t="shared" si="53"/>
-        <v>Csi About</v>
+        <v>Ell Students Exam Information</v>
       </c>
       <c r="S106" t="str">
         <f t="shared" si="46"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
+        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspExams&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
       </c>
       <c r="T106" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/calendars/csi-about.pdf"&gt;Csi About&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/main/exams/ell-students-exam-information.pdf"&gt;Ell Students Exam Information&lt;/a&gt;</v>
       </c>
       <c r="U106" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/calendars/csi-about.pdf"&gt;Csi About&lt;/a&gt;</v>
+        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspExams&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/exams/ell-students-exam-information.pdf"&gt;Ell Students Exam Information&lt;/a&gt;</v>
       </c>
     </row>
     <row r="107" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C107">
         <f t="shared" si="47"/>
@@ -9535,11 +9529,11 @@
       </c>
       <c r="H107" t="str">
         <f t="shared" si="41"/>
-        <v>Calendars</v>
+        <v>Exams</v>
       </c>
       <c r="I107">
         <f t="shared" si="42"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J107" t="str">
         <f t="shared" si="43"/>
@@ -9559,15 +9553,15 @@
       </c>
       <c r="N107">
         <f t="shared" si="49"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O107" t="str">
         <f t="shared" si="50"/>
-        <v>csi-now.pdf</v>
+        <v>exam-formatting.pdf</v>
       </c>
       <c r="P107" t="str">
         <f t="shared" si="51"/>
-        <v>csi-now</v>
+        <v>exam-formatting</v>
       </c>
       <c r="Q107" t="str">
         <f t="shared" si="52"/>
@@ -9575,7 +9569,7 @@
       </c>
       <c r="R107" t="str">
         <f t="shared" si="53"/>
-        <v>Csi Now</v>
+        <v>Exam Formatting</v>
       </c>
       <c r="S107" t="str">
         <f t="shared" si="46"/>
@@ -9583,16 +9577,16 @@
       </c>
       <c r="T107" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/calendars/csi-now.pdf"&gt;Csi Now&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/main/exams/exam-formatting.pdf"&gt;Exam Formatting&lt;/a&gt;</v>
       </c>
       <c r="U107" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/calendars/csi-now.pdf"&gt;Csi Now&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/exams/exam-formatting.pdf"&gt;Exam Formatting&lt;/a&gt;</v>
       </c>
     </row>
     <row r="108" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C108">
         <f t="shared" si="47"/>
@@ -9616,11 +9610,11 @@
       </c>
       <c r="H108" t="str">
         <f t="shared" si="41"/>
-        <v>Calendars</v>
+        <v>Exams</v>
       </c>
       <c r="I108">
         <f t="shared" si="42"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J108" t="str">
         <f t="shared" si="43"/>
@@ -9640,15 +9634,15 @@
       </c>
       <c r="N108">
         <f t="shared" si="49"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O108" t="str">
         <f t="shared" si="50"/>
-        <v>csi-soon.pdf</v>
+        <v>exam-schedule.pdf</v>
       </c>
       <c r="P108" t="str">
         <f t="shared" si="51"/>
-        <v>csi-soon</v>
+        <v>exam-schedule</v>
       </c>
       <c r="Q108" t="str">
         <f t="shared" si="52"/>
@@ -9656,7 +9650,7 @@
       </c>
       <c r="R108" t="str">
         <f t="shared" si="53"/>
-        <v>Csi Soon</v>
+        <v>Exam Schedule</v>
       </c>
       <c r="S108" t="str">
         <f t="shared" si="46"/>
@@ -9664,16 +9658,16 @@
       </c>
       <c r="T108" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/calendars/csi-soon.pdf"&gt;Csi Soon&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/main/exams/exam-schedule.pdf"&gt;Exam Schedule&lt;/a&gt;</v>
       </c>
       <c r="U108" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/calendars/csi-soon.pdf"&gt;Csi Soon&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/exams/exam-schedule.pdf"&gt;Exam Schedule&lt;/a&gt;</v>
       </c>
     </row>
     <row r="109" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C109">
         <f t="shared" si="47"/>
@@ -9697,11 +9691,11 @@
       </c>
       <c r="H109" t="str">
         <f t="shared" si="41"/>
-        <v>Exams</v>
+        <v>News</v>
       </c>
       <c r="I109">
         <f t="shared" si="42"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J109" t="str">
         <f t="shared" si="43"/>
@@ -9721,15 +9715,15 @@
       </c>
       <c r="N109">
         <f t="shared" si="49"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O109" t="str">
         <f t="shared" si="50"/>
-        <v>ell-students-exam-information.pdf</v>
+        <v>lifetouch-program.pdf</v>
       </c>
       <c r="P109" t="str">
         <f t="shared" si="51"/>
-        <v>ell-students-exam-information</v>
+        <v>lifetouch-program</v>
       </c>
       <c r="Q109" t="str">
         <f t="shared" si="52"/>
@@ -9737,24 +9731,24 @@
       </c>
       <c r="R109" t="str">
         <f t="shared" si="53"/>
-        <v>Ell Students Exam Information</v>
+        <v>Lifetouch Program</v>
       </c>
       <c r="S109" t="str">
         <f t="shared" si="46"/>
-        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspExams&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
+        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspNews&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
       </c>
       <c r="T109" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/exams/ell-students-exam-information.pdf"&gt;Ell Students Exam Information&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/lifetouch-program.pdf"&gt;Lifetouch Program&lt;/a&gt;</v>
       </c>
       <c r="U109" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspExams&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/exams/ell-students-exam-information.pdf"&gt;Ell Students Exam Information&lt;/a&gt;</v>
+        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspNews&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/lifetouch-program.pdf"&gt;Lifetouch Program&lt;/a&gt;</v>
       </c>
     </row>
     <row r="110" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="C110">
         <f t="shared" si="47"/>
@@ -9778,19 +9772,19 @@
       </c>
       <c r="H110" t="str">
         <f t="shared" si="41"/>
-        <v>Exams</v>
+        <v>News</v>
       </c>
       <c r="I110">
         <f t="shared" si="42"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J110" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>Ongoing</v>
       </c>
       <c r="K110">
         <f t="shared" si="44"/>
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="L110" t="str">
         <f t="shared" si="45"/>
@@ -9802,15 +9796,15 @@
       </c>
       <c r="N110">
         <f t="shared" si="49"/>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="O110" t="str">
         <f t="shared" si="50"/>
-        <v>exam-formatting.pdf</v>
+        <v>homelogic-parent-letter.pdf</v>
       </c>
       <c r="P110" t="str">
         <f t="shared" si="51"/>
-        <v>exam-formatting</v>
+        <v>homelogic-parent-letter</v>
       </c>
       <c r="Q110" t="str">
         <f t="shared" si="52"/>
@@ -9818,7 +9812,7 @@
       </c>
       <c r="R110" t="str">
         <f t="shared" si="53"/>
-        <v>Exam Formatting</v>
+        <v>Homelogic Parent Letter</v>
       </c>
       <c r="S110" t="str">
         <f t="shared" si="46"/>
@@ -9826,16 +9820,16 @@
       </c>
       <c r="T110" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/exams/exam-formatting.pdf"&gt;Exam Formatting&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/ongoing/homelogic-parent-letter.pdf"&gt;Homelogic Parent Letter&lt;/a&gt;</v>
       </c>
       <c r="U110" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/exams/exam-formatting.pdf"&gt;Exam Formatting&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/ongoing/homelogic-parent-letter.pdf"&gt;Homelogic Parent Letter&lt;/a&gt;</v>
       </c>
     </row>
     <row r="111" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C111">
         <f t="shared" si="47"/>
@@ -9859,11 +9853,11 @@
       </c>
       <c r="H111" t="str">
         <f t="shared" si="41"/>
-        <v>Exams</v>
+        <v>News</v>
       </c>
       <c r="I111">
         <f t="shared" si="42"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J111" t="str">
         <f t="shared" si="43"/>
@@ -9883,15 +9877,15 @@
       </c>
       <c r="N111">
         <f t="shared" si="49"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O111" t="str">
         <f t="shared" si="50"/>
-        <v>exam-schedule.pdf</v>
+        <v>spain-trip-2014.pdf</v>
       </c>
       <c r="P111" t="str">
         <f t="shared" si="51"/>
-        <v>exam-schedule</v>
+        <v>spain-trip-2014</v>
       </c>
       <c r="Q111" t="str">
         <f t="shared" si="52"/>
@@ -9899,7 +9893,7 @@
       </c>
       <c r="R111" t="str">
         <f t="shared" si="53"/>
-        <v>Exam Schedule</v>
+        <v>Spain Trip 2014</v>
       </c>
       <c r="S111" t="str">
         <f t="shared" si="46"/>
@@ -9907,16 +9901,16 @@
       </c>
       <c r="T111" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/exams/exam-schedule.pdf"&gt;Exam Schedule&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/spain-trip-2014.pdf"&gt;Spain Trip 2014&lt;/a&gt;</v>
       </c>
       <c r="U111" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/exams/exam-schedule.pdf"&gt;Exam Schedule&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/spain-trip-2014.pdf"&gt;Spain Trip 2014&lt;/a&gt;</v>
       </c>
     </row>
     <row r="112" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C112">
         <f t="shared" si="47"/>
@@ -9948,11 +9942,11 @@
       </c>
       <c r="J112" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>Summer Package</v>
       </c>
       <c r="K112">
         <f t="shared" si="44"/>
-        <v>-1</v>
+        <v>39</v>
       </c>
       <c r="L112" t="str">
         <f t="shared" si="45"/>
@@ -9964,15 +9958,15 @@
       </c>
       <c r="N112">
         <f t="shared" si="49"/>
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="O112" t="str">
         <f t="shared" si="50"/>
-        <v>athletic-gear-purchase.pdf</v>
+        <v>administration-information.pdf</v>
       </c>
       <c r="P112" t="str">
         <f t="shared" si="51"/>
-        <v>athletic-gear-purchase</v>
+        <v>administration-information</v>
       </c>
       <c r="Q112" t="str">
         <f t="shared" si="52"/>
@@ -9980,24 +9974,24 @@
       </c>
       <c r="R112" t="str">
         <f t="shared" si="53"/>
-        <v>Athletic Gear Purchase</v>
+        <v>Administration Information</v>
       </c>
       <c r="S112" t="str">
         <f t="shared" si="46"/>
-        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspNews&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
       </c>
       <c r="T112" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/athletic-gear-purchase.pdf"&gt;Athletic Gear Purchase&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/summer-package/administration-information.pdf"&gt;Administration Information&lt;/a&gt;</v>
       </c>
       <c r="U112" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspNews&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/athletic-gear-purchase.pdf"&gt;Athletic Gear Purchase&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/summer-package/administration-information.pdf"&gt;Administration Information&lt;/a&gt;</v>
       </c>
     </row>
     <row r="113" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C113">
         <f t="shared" si="47"/>
@@ -10029,11 +10023,11 @@
       </c>
       <c r="J113" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>Summer Package</v>
       </c>
       <c r="K113">
         <f t="shared" si="44"/>
-        <v>-1</v>
+        <v>39</v>
       </c>
       <c r="L113" t="str">
         <f t="shared" si="45"/>
@@ -10045,15 +10039,15 @@
       </c>
       <c r="N113">
         <f t="shared" si="49"/>
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="O113" t="str">
         <f t="shared" si="50"/>
-        <v>grad-banquet-order-form.pdf</v>
+        <v>welcome-back-from-guidance.pdf</v>
       </c>
       <c r="P113" t="str">
         <f t="shared" si="51"/>
-        <v>grad-banquet-order-form</v>
+        <v>welcome-back-from-guidance</v>
       </c>
       <c r="Q113" t="str">
         <f t="shared" si="52"/>
@@ -10061,7 +10055,7 @@
       </c>
       <c r="R113" t="str">
         <f t="shared" si="53"/>
-        <v>Grad Banquet Order Form</v>
+        <v>Welcome Back From Guidance</v>
       </c>
       <c r="S113" t="str">
         <f t="shared" si="46"/>
@@ -10069,16 +10063,16 @@
       </c>
       <c r="T113" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/grad-banquet-order-form.pdf"&gt;Grad Banquet Order Form&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/summer-package/welcome-back-from-guidance.pdf"&gt;Welcome Back From Guidance&lt;/a&gt;</v>
       </c>
       <c r="U113" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/grad-banquet-order-form.pdf"&gt;Grad Banquet Order Form&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/summer-package/welcome-back-from-guidance.pdf"&gt;Welcome Back From Guidance&lt;/a&gt;</v>
       </c>
     </row>
     <row r="114" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="C114">
         <f t="shared" si="47"/>
@@ -10110,11 +10104,11 @@
       </c>
       <c r="J114" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>Upcoming</v>
       </c>
       <c r="K114">
         <f t="shared" si="44"/>
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="L114" t="str">
         <f t="shared" si="45"/>
@@ -10126,15 +10120,15 @@
       </c>
       <c r="N114">
         <f t="shared" si="49"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="O114" t="str">
         <f t="shared" si="50"/>
-        <v>grad-banquet-table-seating-form.pdf</v>
+        <v>grad-banquet-order-form.pdf</v>
       </c>
       <c r="P114" t="str">
         <f t="shared" si="51"/>
-        <v>grad-banquet-table-seating-form</v>
+        <v>grad-banquet-order-form</v>
       </c>
       <c r="Q114" t="str">
         <f t="shared" si="52"/>
@@ -10142,7 +10136,7 @@
       </c>
       <c r="R114" t="str">
         <f t="shared" si="53"/>
-        <v>Grad Banquet Table Seating Form</v>
+        <v>Grad Banquet Order Form</v>
       </c>
       <c r="S114" t="str">
         <f t="shared" si="46"/>
@@ -10150,16 +10144,16 @@
       </c>
       <c r="T114" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/grad-banquet-table-seating-form.pdf"&gt;Grad Banquet Table Seating Form&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/upcoming/grad-banquet-order-form.pdf"&gt;Grad Banquet Order Form&lt;/a&gt;</v>
       </c>
       <c r="U114" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/grad-banquet-table-seating-form.pdf"&gt;Grad Banquet Table Seating Form&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/upcoming/grad-banquet-order-form.pdf"&gt;Grad Banquet Order Form&lt;/a&gt;</v>
       </c>
     </row>
     <row r="115" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="C115">
         <f t="shared" si="47"/>
@@ -10191,11 +10185,11 @@
       </c>
       <c r="J115" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>Upcoming</v>
       </c>
       <c r="K115">
         <f t="shared" si="44"/>
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="L115" t="str">
         <f t="shared" si="45"/>
@@ -10207,15 +10201,15 @@
       </c>
       <c r="N115">
         <f t="shared" si="49"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="O115" t="str">
         <f t="shared" si="50"/>
-        <v>grad-bulletin-1.pdf</v>
+        <v>grad-banquet-table-seating-form.pdf</v>
       </c>
       <c r="P115" t="str">
         <f t="shared" si="51"/>
-        <v>grad-bulletin-1</v>
+        <v>grad-banquet-table-seating-form</v>
       </c>
       <c r="Q115" t="str">
         <f t="shared" si="52"/>
@@ -10223,7 +10217,7 @@
       </c>
       <c r="R115" t="str">
         <f t="shared" si="53"/>
-        <v>Grad Bulletin 1</v>
+        <v>Grad Banquet Table Seating Form</v>
       </c>
       <c r="S115" t="str">
         <f t="shared" si="46"/>
@@ -10231,16 +10225,16 @@
       </c>
       <c r="T115" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/grad-bulletin-1.pdf"&gt;Grad Bulletin 1&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/upcoming/grad-banquet-table-seating-form.pdf"&gt;Grad Banquet Table Seating Form&lt;/a&gt;</v>
       </c>
       <c r="U115" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/grad-bulletin-1.pdf"&gt;Grad Bulletin 1&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/upcoming/grad-banquet-table-seating-form.pdf"&gt;Grad Banquet Table Seating Form&lt;/a&gt;</v>
       </c>
     </row>
     <row r="116" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="C116">
         <f t="shared" si="47"/>
@@ -10272,11 +10266,11 @@
       </c>
       <c r="J116" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>Upcoming</v>
       </c>
       <c r="K116">
         <f t="shared" si="44"/>
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="L116" t="str">
         <f t="shared" si="45"/>
@@ -10288,15 +10282,15 @@
       </c>
       <c r="N116">
         <f t="shared" si="49"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="O116" t="str">
         <f t="shared" si="50"/>
-        <v>grad-bulletin-2.pdf</v>
+        <v>grad-bulletin-1.pdf</v>
       </c>
       <c r="P116" t="str">
         <f t="shared" si="51"/>
-        <v>grad-bulletin-2</v>
+        <v>grad-bulletin-1</v>
       </c>
       <c r="Q116" t="str">
         <f t="shared" si="52"/>
@@ -10304,7 +10298,7 @@
       </c>
       <c r="R116" t="str">
         <f t="shared" si="53"/>
-        <v>Grad Bulletin 2</v>
+        <v>Grad Bulletin 1</v>
       </c>
       <c r="S116" t="str">
         <f t="shared" si="46"/>
@@ -10312,16 +10306,16 @@
       </c>
       <c r="T116" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/grad-bulletin-2.pdf"&gt;Grad Bulletin 2&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/upcoming/grad-bulletin-1.pdf"&gt;Grad Bulletin 1&lt;/a&gt;</v>
       </c>
       <c r="U116" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/grad-bulletin-2.pdf"&gt;Grad Bulletin 2&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/upcoming/grad-bulletin-1.pdf"&gt;Grad Bulletin 1&lt;/a&gt;</v>
       </c>
     </row>
     <row r="117" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="C117">
         <f t="shared" si="47"/>
@@ -10353,11 +10347,11 @@
       </c>
       <c r="J117" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>Upcoming</v>
       </c>
       <c r="K117">
         <f t="shared" si="44"/>
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="L117" t="str">
         <f t="shared" si="45"/>
@@ -10369,15 +10363,15 @@
       </c>
       <c r="N117">
         <f t="shared" si="49"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="O117" t="str">
         <f t="shared" si="50"/>
-        <v>grad-info-booklet.pdf</v>
+        <v>grad-bulletin-2.pdf</v>
       </c>
       <c r="P117" t="str">
         <f t="shared" si="51"/>
-        <v>grad-info-booklet</v>
+        <v>grad-bulletin-2</v>
       </c>
       <c r="Q117" t="str">
         <f t="shared" si="52"/>
@@ -10385,7 +10379,7 @@
       </c>
       <c r="R117" t="str">
         <f t="shared" si="53"/>
-        <v>Grad Info Booklet</v>
+        <v>Grad Bulletin 2</v>
       </c>
       <c r="S117" t="str">
         <f t="shared" si="46"/>
@@ -10393,16 +10387,16 @@
       </c>
       <c r="T117" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/grad-info-booklet.pdf"&gt;Grad Info Booklet&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/upcoming/grad-bulletin-2.pdf"&gt;Grad Bulletin 2&lt;/a&gt;</v>
       </c>
       <c r="U117" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/grad-info-booklet.pdf"&gt;Grad Info Booklet&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/upcoming/grad-bulletin-2.pdf"&gt;Grad Bulletin 2&lt;/a&gt;</v>
       </c>
     </row>
     <row r="118" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="C118">
         <f t="shared" si="47"/>
@@ -10434,11 +10428,11 @@
       </c>
       <c r="J118" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>Upcoming</v>
       </c>
       <c r="K118">
         <f t="shared" si="44"/>
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="L118" t="str">
         <f t="shared" si="45"/>
@@ -10450,15 +10444,15 @@
       </c>
       <c r="N118">
         <f t="shared" si="49"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="O118" t="str">
         <f t="shared" si="50"/>
-        <v>grad-procedures.pdf</v>
+        <v>grad-info-booklet.pdf</v>
       </c>
       <c r="P118" t="str">
         <f t="shared" si="51"/>
-        <v>grad-procedures</v>
+        <v>grad-info-booklet</v>
       </c>
       <c r="Q118" t="str">
         <f t="shared" si="52"/>
@@ -10466,7 +10460,7 @@
       </c>
       <c r="R118" t="str">
         <f t="shared" si="53"/>
-        <v>Grad Procedures</v>
+        <v>Grad Info Booklet</v>
       </c>
       <c r="S118" t="str">
         <f t="shared" si="46"/>
@@ -10474,16 +10468,16 @@
       </c>
       <c r="T118" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/grad-procedures.pdf"&gt;Grad Procedures&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/upcoming/grad-info-booklet.pdf"&gt;Grad Info Booklet&lt;/a&gt;</v>
       </c>
       <c r="U118" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/grad-procedures.pdf"&gt;Grad Procedures&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/upcoming/grad-info-booklet.pdf"&gt;Grad Info Booklet&lt;/a&gt;</v>
       </c>
     </row>
     <row r="119" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="C119">
         <f t="shared" si="47"/>
@@ -10515,11 +10509,11 @@
       </c>
       <c r="J119" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>Upcoming</v>
       </c>
       <c r="K119">
         <f t="shared" si="44"/>
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="L119" t="str">
         <f t="shared" si="45"/>
@@ -10531,15 +10525,15 @@
       </c>
       <c r="N119">
         <f t="shared" si="49"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="O119" t="str">
         <f t="shared" si="50"/>
-        <v>grad-table-seating-form.pdf</v>
+        <v>grad-procedures.pdf</v>
       </c>
       <c r="P119" t="str">
         <f t="shared" si="51"/>
-        <v>grad-table-seating-form</v>
+        <v>grad-procedures</v>
       </c>
       <c r="Q119" t="str">
         <f t="shared" si="52"/>
@@ -10547,7 +10541,7 @@
       </c>
       <c r="R119" t="str">
         <f t="shared" si="53"/>
-        <v>Grad Table Seating Form</v>
+        <v>Grad Procedures</v>
       </c>
       <c r="S119" t="str">
         <f t="shared" si="46"/>
@@ -10555,16 +10549,16 @@
       </c>
       <c r="T119" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/grad-table-seating-form.pdf"&gt;Grad Table Seating Form&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/upcoming/grad-procedures.pdf"&gt;Grad Procedures&lt;/a&gt;</v>
       </c>
       <c r="U119" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/grad-table-seating-form.pdf"&gt;Grad Table Seating Form&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/upcoming/grad-procedures.pdf"&gt;Grad Procedures&lt;/a&gt;</v>
       </c>
     </row>
     <row r="120" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="C120">
         <f t="shared" si="47"/>
@@ -10596,11 +10590,11 @@
       </c>
       <c r="J120" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>Upcoming</v>
       </c>
       <c r="K120">
         <f t="shared" si="44"/>
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="L120" t="str">
         <f t="shared" si="45"/>
@@ -10612,15 +10606,15 @@
       </c>
       <c r="N120">
         <f t="shared" si="49"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="O120" t="str">
         <f t="shared" si="50"/>
-        <v>homelogic-parent-letter.pdf</v>
+        <v>grad-table-seating-form.pdf</v>
       </c>
       <c r="P120" t="str">
         <f t="shared" si="51"/>
-        <v>homelogic-parent-letter</v>
+        <v>grad-table-seating-form</v>
       </c>
       <c r="Q120" t="str">
         <f t="shared" si="52"/>
@@ -10628,7 +10622,7 @@
       </c>
       <c r="R120" t="str">
         <f t="shared" si="53"/>
-        <v>Homelogic Parent Letter</v>
+        <v>Grad Table Seating Form</v>
       </c>
       <c r="S120" t="str">
         <f t="shared" si="46"/>
@@ -10636,16 +10630,16 @@
       </c>
       <c r="T120" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/homelogic-parent-letter.pdf"&gt;Homelogic Parent Letter&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/upcoming/grad-table-seating-form.pdf"&gt;Grad Table Seating Form&lt;/a&gt;</v>
       </c>
       <c r="U120" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/homelogic-parent-letter.pdf"&gt;Homelogic Parent Letter&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/upcoming/grad-table-seating-form.pdf"&gt;Grad Table Seating Form&lt;/a&gt;</v>
       </c>
     </row>
     <row r="121" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="C121">
         <f t="shared" si="47"/>
@@ -10677,11 +10671,11 @@
       </c>
       <c r="J121" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>Whats New</v>
       </c>
       <c r="K121">
         <f t="shared" si="44"/>
-        <v>-1</v>
+        <v>34</v>
       </c>
       <c r="L121" t="str">
         <f t="shared" si="45"/>
@@ -10693,15 +10687,15 @@
       </c>
       <c r="N121">
         <f t="shared" si="49"/>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="O121" t="str">
         <f t="shared" si="50"/>
-        <v>lifetouch-program.pdf</v>
+        <v>new-principal-letter.pdf</v>
       </c>
       <c r="P121" t="str">
         <f t="shared" si="51"/>
-        <v>lifetouch-program</v>
+        <v>new-principal-letter</v>
       </c>
       <c r="Q121" t="str">
         <f t="shared" si="52"/>
@@ -10709,7 +10703,7 @@
       </c>
       <c r="R121" t="str">
         <f t="shared" si="53"/>
-        <v>Lifetouch Program</v>
+        <v>New Principal Letter</v>
       </c>
       <c r="S121" t="str">
         <f t="shared" si="46"/>
@@ -10717,16 +10711,16 @@
       </c>
       <c r="T121" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/lifetouch-program.pdf"&gt;Lifetouch Program&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/whats-new/new-principal-letter.pdf"&gt;New Principal Letter&lt;/a&gt;</v>
       </c>
       <c r="U121" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/lifetouch-program.pdf"&gt;Lifetouch Program&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/whats-new/new-principal-letter.pdf"&gt;New Principal Letter&lt;/a&gt;</v>
       </c>
     </row>
     <row r="122" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="C122">
         <f t="shared" si="47"/>
@@ -10758,11 +10752,11 @@
       </c>
       <c r="J122" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>Whats New</v>
       </c>
       <c r="K122">
         <f t="shared" si="44"/>
-        <v>-1</v>
+        <v>34</v>
       </c>
       <c r="L122" t="str">
         <f t="shared" si="45"/>
@@ -10774,15 +10768,15 @@
       </c>
       <c r="N122">
         <f t="shared" si="49"/>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="O122" t="str">
         <f t="shared" si="50"/>
-        <v>meet-the-teacher.pdf</v>
+        <v>student-services-news.pdf</v>
       </c>
       <c r="P122" t="str">
         <f t="shared" si="51"/>
-        <v>meet-the-teacher</v>
+        <v>student-services-news</v>
       </c>
       <c r="Q122" t="str">
         <f t="shared" si="52"/>
@@ -10790,7 +10784,7 @@
       </c>
       <c r="R122" t="str">
         <f t="shared" si="53"/>
-        <v>Meet The Teacher</v>
+        <v>Student Services News</v>
       </c>
       <c r="S122" t="str">
         <f t="shared" si="46"/>
@@ -10798,16 +10792,16 @@
       </c>
       <c r="T122" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/meet-the-teacher.pdf"&gt;Meet The Teacher&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/whats-new/student-services-news.pdf"&gt;Student Services News&lt;/a&gt;</v>
       </c>
       <c r="U122" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/meet-the-teacher.pdf"&gt;Meet The Teacher&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/whats-new/student-services-news.pdf"&gt;Student Services News&lt;/a&gt;</v>
       </c>
     </row>
     <row r="123" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C123">
         <f t="shared" si="47"/>
@@ -10831,11 +10825,11 @@
       </c>
       <c r="H123" t="str">
         <f t="shared" si="41"/>
-        <v>News</v>
+        <v/>
       </c>
       <c r="I123">
         <f t="shared" si="42"/>
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="J123" t="str">
         <f t="shared" si="43"/>
@@ -10855,15 +10849,15 @@
       </c>
       <c r="N123">
         <f t="shared" si="49"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O123" t="str">
         <f t="shared" si="50"/>
-        <v>new-principal-letter.pdf</v>
+        <v>student-bulletin.pdf</v>
       </c>
       <c r="P123" t="str">
         <f t="shared" si="51"/>
-        <v>new-principal-letter</v>
+        <v>student-bulletin</v>
       </c>
       <c r="Q123" t="str">
         <f t="shared" si="52"/>
@@ -10871,7 +10865,7 @@
       </c>
       <c r="R123" t="str">
         <f t="shared" si="53"/>
-        <v>New Principal Letter</v>
+        <v>Student Bulletin</v>
       </c>
       <c r="S123" t="str">
         <f t="shared" si="46"/>
@@ -10879,16 +10873,16 @@
       </c>
       <c r="T123" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/new-principal-letter.pdf"&gt;New Principal Letter&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/main/student-bulletin.pdf"&gt;Student Bulletin&lt;/a&gt;</v>
       </c>
       <c r="U123" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/new-principal-letter.pdf"&gt;New Principal Letter&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/student-bulletin.pdf"&gt;Student Bulletin&lt;/a&gt;</v>
       </c>
     </row>
     <row r="124" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C124">
         <f t="shared" si="47"/>
@@ -10912,11 +10906,11 @@
       </c>
       <c r="H124" t="str">
         <f t="shared" si="41"/>
-        <v>News</v>
+        <v/>
       </c>
       <c r="I124">
         <f t="shared" si="42"/>
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="J124" t="str">
         <f t="shared" si="43"/>
@@ -10936,15 +10930,15 @@
       </c>
       <c r="N124">
         <f t="shared" si="49"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O124" t="str">
         <f t="shared" si="50"/>
-        <v>open-houses.pdf</v>
+        <v>student-handbook.pdf</v>
       </c>
       <c r="P124" t="str">
         <f t="shared" si="51"/>
-        <v>open-houses</v>
+        <v>student-handbook</v>
       </c>
       <c r="Q124" t="str">
         <f t="shared" si="52"/>
@@ -10952,7 +10946,7 @@
       </c>
       <c r="R124" t="str">
         <f t="shared" si="53"/>
-        <v>Open Houses</v>
+        <v>Student Handbook</v>
       </c>
       <c r="S124" t="str">
         <f t="shared" si="46"/>
@@ -10960,16 +10954,16 @@
       </c>
       <c r="T124" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/open-houses.pdf"&gt;Open Houses&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/main/student-handbook.pdf"&gt;Student Handbook&lt;/a&gt;</v>
       </c>
       <c r="U124" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/open-houses.pdf"&gt;Open Houses&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/student-handbook.pdf"&gt;Student Handbook&lt;/a&gt;</v>
       </c>
     </row>
     <row r="125" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C125">
         <f t="shared" si="47"/>
@@ -10993,11 +10987,11 @@
       </c>
       <c r="H125" t="str">
         <f t="shared" si="41"/>
-        <v>News</v>
+        <v/>
       </c>
       <c r="I125">
         <f t="shared" si="42"/>
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="J125" t="str">
         <f t="shared" si="43"/>
@@ -11017,23 +11011,23 @@
       </c>
       <c r="N125">
         <f t="shared" si="49"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O125" t="str">
         <f t="shared" si="50"/>
-        <v>spain-trip-2014.jpg</v>
+        <v>timetable.pdf</v>
       </c>
       <c r="P125" t="str">
         <f t="shared" si="51"/>
-        <v>spain-trip-2014</v>
+        <v>timetable</v>
       </c>
       <c r="Q125" t="str">
         <f t="shared" si="52"/>
-        <v>.jpg</v>
+        <v>.pdf</v>
       </c>
       <c r="R125" t="str">
         <f t="shared" si="53"/>
-        <v>Spain Trip 2014</v>
+        <v>Timetable</v>
       </c>
       <c r="S125" t="str">
         <f t="shared" si="46"/>
@@ -11041,16 +11035,16 @@
       </c>
       <c r="T125" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/spain-trip-2014.jpg"&gt;Spain Trip 2014&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/main/timetable.pdf"&gt;Timetable&lt;/a&gt;</v>
       </c>
       <c r="U125" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/spain-trip-2014.jpg"&gt;Spain Trip 2014&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/timetable.pdf"&gt;Timetable&lt;/a&gt;</v>
       </c>
     </row>
     <row r="126" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C126">
         <f t="shared" si="47"/>
@@ -11066,19 +11060,19 @@
       </c>
       <c r="F126" t="str">
         <f t="shared" si="39"/>
-        <v>Main</v>
+        <v>Programs</v>
       </c>
       <c r="G126">
         <f t="shared" si="40"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="41"/>
-        <v>News</v>
+        <v>Advanced Placement</v>
       </c>
       <c r="I126">
         <f t="shared" si="42"/>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J126" t="str">
         <f t="shared" si="43"/>
@@ -11098,15 +11092,15 @@
       </c>
       <c r="N126">
         <f t="shared" si="49"/>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="O126" t="str">
         <f t="shared" si="50"/>
-        <v>spain-trip-2014.pdf</v>
+        <v>advanced-placement-exam-dates.pdf</v>
       </c>
       <c r="P126" t="str">
         <f t="shared" si="51"/>
-        <v>spain-trip-2014</v>
+        <v>advanced-placement-exam-dates</v>
       </c>
       <c r="Q126" t="str">
         <f t="shared" si="52"/>
@@ -11114,24 +11108,24 @@
       </c>
       <c r="R126" t="str">
         <f t="shared" si="53"/>
-        <v>Spain Trip 2014</v>
+        <v>Advanced Placement Exam Dates</v>
       </c>
       <c r="S126" t="str">
         <f t="shared" si="46"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
+        <v>&lt;br&gt;&lt;h3&gt;Programs&lt;/h3&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspAdvanced Placement&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
       </c>
       <c r="T126" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/spain-trip-2014.pdf"&gt;Spain Trip 2014&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/programs/advanced-placement/advanced-placement-exam-dates.pdf"&gt;Advanced Placement Exam Dates&lt;/a&gt;</v>
       </c>
       <c r="U126" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/spain-trip-2014.pdf"&gt;Spain Trip 2014&lt;/a&gt;</v>
+        <v>&lt;br&gt;&lt;h3&gt;Programs&lt;/h3&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspAdvanced Placement&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/advanced-placement/advanced-placement-exam-dates.pdf"&gt;Advanced Placement Exam Dates&lt;/a&gt;</v>
       </c>
     </row>
     <row r="127" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C127">
         <f t="shared" si="47"/>
@@ -11147,27 +11141,27 @@
       </c>
       <c r="F127" t="str">
         <f t="shared" si="39"/>
-        <v>Main</v>
+        <v>Programs</v>
       </c>
       <c r="G127">
         <f t="shared" si="40"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="41"/>
-        <v>News</v>
+        <v>Advanced Placement</v>
       </c>
       <c r="I127">
         <f t="shared" si="42"/>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J127" t="str">
         <f t="shared" si="43"/>
-        <v>Summer Package</v>
+        <v/>
       </c>
       <c r="K127">
         <f t="shared" si="44"/>
-        <v>39</v>
+        <v>-1</v>
       </c>
       <c r="L127" t="str">
         <f t="shared" si="45"/>
@@ -11179,15 +11173,15 @@
       </c>
       <c r="N127">
         <f t="shared" si="49"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O127" t="str">
         <f t="shared" si="50"/>
-        <v>administration-information.pdf</v>
+        <v>advanced-placement-schedule-science.pdf</v>
       </c>
       <c r="P127" t="str">
         <f t="shared" si="51"/>
-        <v>administration-information</v>
+        <v>advanced-placement-schedule-science</v>
       </c>
       <c r="Q127" t="str">
         <f t="shared" si="52"/>
@@ -11195,7 +11189,7 @@
       </c>
       <c r="R127" t="str">
         <f t="shared" si="53"/>
-        <v>Administration Information</v>
+        <v>Advanced Placement Schedule Science</v>
       </c>
       <c r="S127" t="str">
         <f t="shared" si="46"/>
@@ -11203,16 +11197,16 @@
       </c>
       <c r="T127" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/summer-package/administration-information.pdf"&gt;Administration Information&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/programs/advanced-placement/advanced-placement-schedule-science.pdf"&gt;Advanced Placement Schedule Science&lt;/a&gt;</v>
       </c>
       <c r="U127" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/summer-package/administration-information.pdf"&gt;Administration Information&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/advanced-placement/advanced-placement-schedule-science.pdf"&gt;Advanced Placement Schedule Science&lt;/a&gt;</v>
       </c>
     </row>
     <row r="128" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C128">
         <f t="shared" si="47"/>
@@ -11228,27 +11222,27 @@
       </c>
       <c r="F128" t="str">
         <f t="shared" si="39"/>
-        <v>Main</v>
+        <v>Programs</v>
       </c>
       <c r="G128">
         <f t="shared" si="40"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="41"/>
-        <v>News</v>
+        <v>French Immersion</v>
       </c>
       <c r="I128">
         <f t="shared" si="42"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J128" t="str">
         <f t="shared" si="43"/>
-        <v>Summer Package</v>
+        <v/>
       </c>
       <c r="K128">
         <f t="shared" si="44"/>
-        <v>39</v>
+        <v>-1</v>
       </c>
       <c r="L128" t="str">
         <f t="shared" si="45"/>
@@ -11260,15 +11254,15 @@
       </c>
       <c r="N128">
         <f t="shared" si="49"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O128" t="str">
         <f t="shared" si="50"/>
-        <v>school-opening-procedures.pdf</v>
+        <v>10-goodreasons.pdf</v>
       </c>
       <c r="P128" t="str">
         <f t="shared" si="51"/>
-        <v>school-opening-procedures</v>
+        <v>10-goodreasons</v>
       </c>
       <c r="Q128" t="str">
         <f t="shared" si="52"/>
@@ -11276,24 +11270,24 @@
       </c>
       <c r="R128" t="str">
         <f t="shared" si="53"/>
-        <v>School Opening Procedures</v>
+        <v>10 Goodreasons</v>
       </c>
       <c r="S128" t="str">
         <f t="shared" si="46"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
+        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspFrench Immersion&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
       </c>
       <c r="T128" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/summer-package/school-opening-procedures.pdf"&gt;School Opening Procedures&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/10-goodreasons.pdf"&gt;10 Goodreasons&lt;/a&gt;</v>
       </c>
       <c r="U128" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/summer-package/school-opening-procedures.pdf"&gt;School Opening Procedures&lt;/a&gt;</v>
+        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspFrench Immersion&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/10-goodreasons.pdf"&gt;10 Goodreasons&lt;/a&gt;</v>
       </c>
     </row>
     <row r="129" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C129">
         <f t="shared" si="47"/>
@@ -11309,27 +11303,27 @@
       </c>
       <c r="F129" t="str">
         <f t="shared" si="39"/>
-        <v>Main</v>
+        <v>Programs</v>
       </c>
       <c r="G129">
         <f t="shared" si="40"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="41"/>
-        <v>News</v>
+        <v>French Immersion</v>
       </c>
       <c r="I129">
         <f t="shared" si="42"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J129" t="str">
         <f t="shared" si="43"/>
-        <v>Summer Package</v>
+        <v/>
       </c>
       <c r="K129">
         <f t="shared" si="44"/>
-        <v>39</v>
+        <v>-1</v>
       </c>
       <c r="L129" t="str">
         <f t="shared" si="45"/>
@@ -11341,15 +11335,15 @@
       </c>
       <c r="N129">
         <f t="shared" si="49"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O129" t="str">
         <f t="shared" si="50"/>
-        <v>welcome-back-from-guidance.pdf</v>
+        <v>application-challenge-fla20-1.pdf</v>
       </c>
       <c r="P129" t="str">
         <f t="shared" si="51"/>
-        <v>welcome-back-from-guidance</v>
+        <v>application-challenge-fla20-1</v>
       </c>
       <c r="Q129" t="str">
         <f t="shared" si="52"/>
@@ -11357,7 +11351,7 @@
       </c>
       <c r="R129" t="str">
         <f t="shared" si="53"/>
-        <v>Welcome Back From Guidance</v>
+        <v>Application Challenge Fla20 1</v>
       </c>
       <c r="S129" t="str">
         <f t="shared" si="46"/>
@@ -11365,16 +11359,16 @@
       </c>
       <c r="T129" t="str">
         <f t="shared" si="54"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/main/news/summer-package/welcome-back-from-guidance.pdf"&gt;Welcome Back From Guidance&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/application-challenge-fla20-1.pdf"&gt;Application Challenge Fla20 1&lt;/a&gt;</v>
       </c>
       <c r="U129" t="str">
         <f t="shared" si="55"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/main/news/summer-package/welcome-back-from-guidance.pdf"&gt;Welcome Back From Guidance&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/application-challenge-fla20-1.pdf"&gt;Application Challenge Fla20 1&lt;/a&gt;</v>
       </c>
     </row>
     <row r="130" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C130">
         <f t="shared" ref="C130:C161" si="56">SEARCH("/",$B130)</f>
@@ -11398,11 +11392,11 @@
       </c>
       <c r="H130" t="str">
         <f t="shared" si="41"/>
-        <v>Advanced Placement</v>
+        <v>French Immersion</v>
       </c>
       <c r="I130">
         <f t="shared" si="42"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J130" t="str">
         <f t="shared" si="43"/>
@@ -11422,15 +11416,15 @@
       </c>
       <c r="N130">
         <f t="shared" ref="N130:N161" si="58">IF(M130 &gt; 0,M130,IF(K130 &gt; 0,K130,IF(I130 &gt; 0, I130, IF(G130 &gt; 0, G130, IF(E130 &gt; 0, E130, 0)))))</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O130" t="str">
         <f t="shared" ref="O130:O161" si="59">IFERROR(MID($B130,N130 + 1,100),"")</f>
-        <v>advanced-placement-exam-dates.pdf</v>
+        <v>butmom.pdf</v>
       </c>
       <c r="P130" t="str">
         <f t="shared" ref="P130:P161" si="60">LEFT(O130, LEN(O130) - 4)</f>
-        <v>advanced-placement-exam-dates</v>
+        <v>butmom</v>
       </c>
       <c r="Q130" t="str">
         <f t="shared" ref="Q130:Q161" si="61">MID(O130, LEN(O130) - 3, 100)</f>
@@ -11438,24 +11432,24 @@
       </c>
       <c r="R130" t="str">
         <f t="shared" ref="R130:R161" si="62">PROPER(SUBSTITUTE(P130,"-"," "))</f>
-        <v>Advanced Placement Exam Dates</v>
+        <v>Butmom</v>
       </c>
       <c r="S130" t="str">
         <f t="shared" si="46"/>
-        <v>&lt;br&gt;&lt;h3&gt;Programs&lt;/h3&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspAdvanced Placement&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
       </c>
       <c r="T130" t="str">
         <f t="shared" ref="T130:T161" si="63">"&lt;a target=""_blank"" href=""/"&amp; $B130 &amp; """&gt;" &amp; R130 &amp; "&lt;/a&gt;"</f>
-        <v>&lt;a target="_blank" href="/b829/aberhart/programs/advanced-placement/advanced-placement-exam-dates.pdf"&gt;Advanced Placement Exam Dates&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/butmom.pdf"&gt;Butmom&lt;/a&gt;</v>
       </c>
       <c r="U130" t="str">
         <f t="shared" ref="U130:U161" si="64">S130 &amp; T130</f>
-        <v>&lt;br&gt;&lt;h3&gt;Programs&lt;/h3&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspAdvanced Placement&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/advanced-placement/advanced-placement-exam-dates.pdf"&gt;Advanced Placement Exam Dates&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/butmom.pdf"&gt;Butmom&lt;/a&gt;</v>
       </c>
     </row>
     <row r="131" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C131">
         <f t="shared" si="56"/>
@@ -11479,11 +11473,11 @@
       </c>
       <c r="H131" t="str">
         <f t="shared" ref="H131:H178" si="69" xml:space="preserve">  PROPER(SUBSTITUTE(IFERROR(MID($B131,G131+1,I131 - G131 -1), ""),"-"," "))</f>
-        <v>Advanced Placement</v>
+        <v>French Immersion</v>
       </c>
       <c r="I131">
         <f t="shared" ref="I131:I178" si="70">IFERROR(SEARCH("/",$B131,G131 + 1), -1)</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J131" t="str">
         <f t="shared" ref="J131:J178" si="71" xml:space="preserve">  PROPER(SUBSTITUTE(IFERROR(MID($B131,I131+1,K131 - I131 -1), ""),"-"," "))</f>
@@ -11503,15 +11497,15 @@
       </c>
       <c r="N131">
         <f t="shared" si="58"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O131" t="str">
         <f t="shared" si="59"/>
-        <v>advanced-placement-schedule-science.pdf</v>
+        <v>french-immersion.pdf</v>
       </c>
       <c r="P131" t="str">
         <f t="shared" si="60"/>
-        <v>advanced-placement-schedule-science</v>
+        <v>french-immersion</v>
       </c>
       <c r="Q131" t="str">
         <f t="shared" si="61"/>
@@ -11519,7 +11513,7 @@
       </c>
       <c r="R131" t="str">
         <f t="shared" si="62"/>
-        <v>Advanced Placement Schedule Science</v>
+        <v>French Immersion</v>
       </c>
       <c r="S131" t="str">
         <f t="shared" ref="S131:S178" si="74" xml:space="preserve"> "&lt;br&gt;" &amp; IF(F131 = F130,"","&lt;h3&gt;" &amp; F131 &amp; "&lt;/h3&gt;") &amp; IF(OR(H131 = H130, H131 = ""), "","&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp" &amp; H131 &amp; "&lt;/h4&gt;")  &amp; "&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp"</f>
@@ -11527,16 +11521,16 @@
       </c>
       <c r="T131" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/programs/advanced-placement/advanced-placement-schedule-science.pdf"&gt;Advanced Placement Schedule Science&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/french-immersion.pdf"&gt;French Immersion&lt;/a&gt;</v>
       </c>
       <c r="U131" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/advanced-placement/advanced-placement-schedule-science.pdf"&gt;Advanced Placement Schedule Science&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/french-immersion.pdf"&gt;French Immersion&lt;/a&gt;</v>
       </c>
     </row>
     <row r="132" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C132">
         <f t="shared" si="56"/>
@@ -11588,11 +11582,11 @@
       </c>
       <c r="O132" t="str">
         <f t="shared" si="59"/>
-        <v>10-goodreasons.pdf</v>
+        <v>frenchimmersion-expectations.pdf</v>
       </c>
       <c r="P132" t="str">
         <f t="shared" si="60"/>
-        <v>10-goodreasons</v>
+        <v>frenchimmersion-expectations</v>
       </c>
       <c r="Q132" t="str">
         <f t="shared" si="61"/>
@@ -11600,24 +11594,24 @@
       </c>
       <c r="R132" t="str">
         <f t="shared" si="62"/>
-        <v>10 Goodreasons</v>
+        <v>Frenchimmersion Expectations</v>
       </c>
       <c r="S132" t="str">
         <f t="shared" si="74"/>
-        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspFrench Immersion&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
       </c>
       <c r="T132" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/10-goodreasons.pdf"&gt;10 Goodreasons&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/frenchimmersion-expectations.pdf"&gt;Frenchimmersion Expectations&lt;/a&gt;</v>
       </c>
       <c r="U132" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspFrench Immersion&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/10-goodreasons.pdf"&gt;10 Goodreasons&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/frenchimmersion-expectations.pdf"&gt;Frenchimmersion Expectations&lt;/a&gt;</v>
       </c>
     </row>
     <row r="133" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C133">
         <f t="shared" si="56"/>
@@ -11669,11 +11663,11 @@
       </c>
       <c r="O133" t="str">
         <f t="shared" si="59"/>
-        <v>application-challenge-fla20-1.pdf</v>
+        <v>general-information.pdf</v>
       </c>
       <c r="P133" t="str">
         <f t="shared" si="60"/>
-        <v>application-challenge-fla20-1</v>
+        <v>general-information</v>
       </c>
       <c r="Q133" t="str">
         <f t="shared" si="61"/>
@@ -11681,7 +11675,7 @@
       </c>
       <c r="R133" t="str">
         <f t="shared" si="62"/>
-        <v>Application Challenge Fla20 1</v>
+        <v>General Information</v>
       </c>
       <c r="S133" t="str">
         <f t="shared" si="74"/>
@@ -11689,16 +11683,16 @@
       </c>
       <c r="T133" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/application-challenge-fla20-1.pdf"&gt;Application Challenge Fla20 1&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/general-information.pdf"&gt;General Information&lt;/a&gt;</v>
       </c>
       <c r="U133" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/application-challenge-fla20-1.pdf"&gt;Application Challenge Fla20 1&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/general-information.pdf"&gt;General Information&lt;/a&gt;</v>
       </c>
     </row>
     <row r="134" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C134">
         <f t="shared" si="56"/>
@@ -11750,11 +11744,11 @@
       </c>
       <c r="O134" t="str">
         <f t="shared" si="59"/>
-        <v>butmom.pdf</v>
+        <v>portfolio-challenging- fla20-1415.pdf</v>
       </c>
       <c r="P134" t="str">
         <f t="shared" si="60"/>
-        <v>butmom</v>
+        <v>portfolio-challenging- fla20-1415</v>
       </c>
       <c r="Q134" t="str">
         <f t="shared" si="61"/>
@@ -11762,7 +11756,7 @@
       </c>
       <c r="R134" t="str">
         <f t="shared" si="62"/>
-        <v>Butmom</v>
+        <v>Portfolio Challenging  Fla20 1415</v>
       </c>
       <c r="S134" t="str">
         <f t="shared" si="74"/>
@@ -11770,16 +11764,16 @@
       </c>
       <c r="T134" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/butmom.pdf"&gt;Butmom&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/portfolio-challenging- fla20-1415.pdf"&gt;Portfolio Challenging  Fla20 1415&lt;/a&gt;</v>
       </c>
       <c r="U134" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/butmom.pdf"&gt;Butmom&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/portfolio-challenging- fla20-1415.pdf"&gt;Portfolio Challenging  Fla20 1415&lt;/a&gt;</v>
       </c>
     </row>
     <row r="135" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C135">
         <f t="shared" si="56"/>
@@ -11831,11 +11825,11 @@
       </c>
       <c r="O135" t="str">
         <f t="shared" si="59"/>
-        <v>french-immersion.pdf</v>
+        <v>procedures-challenging- fla20-1415.pdf</v>
       </c>
       <c r="P135" t="str">
         <f t="shared" si="60"/>
-        <v>french-immersion</v>
+        <v>procedures-challenging- fla20-1415</v>
       </c>
       <c r="Q135" t="str">
         <f t="shared" si="61"/>
@@ -11843,7 +11837,7 @@
       </c>
       <c r="R135" t="str">
         <f t="shared" si="62"/>
-        <v>French Immersion</v>
+        <v>Procedures Challenging  Fla20 1415</v>
       </c>
       <c r="S135" t="str">
         <f t="shared" si="74"/>
@@ -11851,16 +11845,16 @@
       </c>
       <c r="T135" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/french-immersion.pdf"&gt;French Immersion&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/procedures-challenging- fla20-1415.pdf"&gt;Procedures Challenging  Fla20 1415&lt;/a&gt;</v>
       </c>
       <c r="U135" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/french-immersion.pdf"&gt;French Immersion&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/procedures-challenging- fla20-1415.pdf"&gt;Procedures Challenging  Fla20 1415&lt;/a&gt;</v>
       </c>
     </row>
     <row r="136" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C136">
         <f t="shared" si="56"/>
@@ -11912,11 +11906,11 @@
       </c>
       <c r="O136" t="str">
         <f t="shared" si="59"/>
-        <v>frenchimmersion-expectations.pdf</v>
+        <v>student-evaluation-challenge-fsl-30-9y.pdf</v>
       </c>
       <c r="P136" t="str">
         <f t="shared" si="60"/>
-        <v>frenchimmersion-expectations</v>
+        <v>student-evaluation-challenge-fsl-30-9y</v>
       </c>
       <c r="Q136" t="str">
         <f t="shared" si="61"/>
@@ -11924,7 +11918,7 @@
       </c>
       <c r="R136" t="str">
         <f t="shared" si="62"/>
-        <v>Frenchimmersion Expectations</v>
+        <v>Student Evaluation Challenge Fsl 30 9Y</v>
       </c>
       <c r="S136" t="str">
         <f t="shared" si="74"/>
@@ -11932,16 +11926,16 @@
       </c>
       <c r="T136" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/frenchimmersion-expectations.pdf"&gt;Frenchimmersion Expectations&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/student-evaluation-challenge-fsl-30-9y.pdf"&gt;Student Evaluation Challenge Fsl 30 9Y&lt;/a&gt;</v>
       </c>
       <c r="U136" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/frenchimmersion-expectations.pdf"&gt;Frenchimmersion Expectations&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/student-evaluation-challenge-fsl-30-9y.pdf"&gt;Student Evaluation Challenge Fsl 30 9Y&lt;/a&gt;</v>
       </c>
     </row>
     <row r="137" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C137">
         <f t="shared" si="56"/>
@@ -11993,11 +11987,11 @@
       </c>
       <c r="O137" t="str">
         <f t="shared" si="59"/>
-        <v>general-information.pdf</v>
+        <v>student-faq-application-challenge-fsl-30-9y.pdf</v>
       </c>
       <c r="P137" t="str">
         <f t="shared" si="60"/>
-        <v>general-information</v>
+        <v>student-faq-application-challenge-fsl-30-9y</v>
       </c>
       <c r="Q137" t="str">
         <f t="shared" si="61"/>
@@ -12005,7 +11999,7 @@
       </c>
       <c r="R137" t="str">
         <f t="shared" si="62"/>
-        <v>General Information</v>
+        <v>Student Faq Application Challenge Fsl 30 9Y</v>
       </c>
       <c r="S137" t="str">
         <f t="shared" si="74"/>
@@ -12013,16 +12007,16 @@
       </c>
       <c r="T137" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/general-information.pdf"&gt;General Information&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/student-faq-application-challenge-fsl-30-9y.pdf"&gt;Student Faq Application Challenge Fsl 30 9Y&lt;/a&gt;</v>
       </c>
       <c r="U137" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/general-information.pdf"&gt;General Information&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/student-faq-application-challenge-fsl-30-9y.pdf"&gt;Student Faq Application Challenge Fsl 30 9Y&lt;/a&gt;</v>
       </c>
     </row>
     <row r="138" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C138">
         <f t="shared" si="56"/>
@@ -12074,11 +12068,11 @@
       </c>
       <c r="O138" t="str">
         <f t="shared" si="59"/>
-        <v>portfolio-challenging- fla20-1415.pdf</v>
+        <v>student-package-challenge-fsl-30-9y.pdf</v>
       </c>
       <c r="P138" t="str">
         <f t="shared" si="60"/>
-        <v>portfolio-challenging- fla20-1415</v>
+        <v>student-package-challenge-fsl-30-9y</v>
       </c>
       <c r="Q138" t="str">
         <f t="shared" si="61"/>
@@ -12086,7 +12080,7 @@
       </c>
       <c r="R138" t="str">
         <f t="shared" si="62"/>
-        <v>Portfolio Challenging  Fla20 1415</v>
+        <v>Student Package Challenge Fsl 30 9Y</v>
       </c>
       <c r="S138" t="str">
         <f t="shared" si="74"/>
@@ -12094,16 +12088,16 @@
       </c>
       <c r="T138" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/portfolio-challenging- fla20-1415.pdf"&gt;Portfolio Challenging  Fla20 1415&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/student-package-challenge-fsl-30-9y.pdf"&gt;Student Package Challenge Fsl 30 9Y&lt;/a&gt;</v>
       </c>
       <c r="U138" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/portfolio-challenging- fla20-1415.pdf"&gt;Portfolio Challenging  Fla20 1415&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/student-package-challenge-fsl-30-9y.pdf"&gt;Student Package Challenge Fsl 30 9Y&lt;/a&gt;</v>
       </c>
     </row>
     <row r="139" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C139">
         <f t="shared" si="56"/>
@@ -12127,11 +12121,11 @@
       </c>
       <c r="H139" t="str">
         <f t="shared" si="69"/>
-        <v>French Immersion</v>
+        <v>Spanish Bilingual</v>
       </c>
       <c r="I139">
         <f t="shared" si="70"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J139" t="str">
         <f t="shared" si="71"/>
@@ -12151,15 +12145,15 @@
       </c>
       <c r="N139">
         <f t="shared" si="58"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O139" t="str">
         <f t="shared" si="59"/>
-        <v>procedures-challenging- fla20-1415.pdf</v>
+        <v>spanish-bilingual.pdf</v>
       </c>
       <c r="P139" t="str">
         <f t="shared" si="60"/>
-        <v>procedures-challenging- fla20-1415</v>
+        <v>spanish-bilingual</v>
       </c>
       <c r="Q139" t="str">
         <f t="shared" si="61"/>
@@ -12167,24 +12161,24 @@
       </c>
       <c r="R139" t="str">
         <f t="shared" si="62"/>
-        <v>Procedures Challenging  Fla20 1415</v>
+        <v>Spanish Bilingual</v>
       </c>
       <c r="S139" t="str">
         <f t="shared" si="74"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
+        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspSpanish Bilingual&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
       </c>
       <c r="T139" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/procedures-challenging- fla20-1415.pdf"&gt;Procedures Challenging  Fla20 1415&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/programs/spanish-bilingual/spanish-bilingual.pdf"&gt;Spanish Bilingual&lt;/a&gt;</v>
       </c>
       <c r="U139" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/procedures-challenging- fla20-1415.pdf"&gt;Procedures Challenging  Fla20 1415&lt;/a&gt;</v>
+        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspSpanish Bilingual&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/spanish-bilingual/spanish-bilingual.pdf"&gt;Spanish Bilingual&lt;/a&gt;</v>
       </c>
     </row>
     <row r="140" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C140">
         <f t="shared" si="56"/>
@@ -12200,19 +12194,19 @@
       </c>
       <c r="F140" t="str">
         <f t="shared" si="67"/>
-        <v>Programs</v>
+        <v>Student Activities</v>
       </c>
       <c r="G140">
         <f t="shared" si="68"/>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="69"/>
-        <v>French Immersion</v>
+        <v>Advocate</v>
       </c>
       <c r="I140">
         <f t="shared" si="70"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J140" t="str">
         <f t="shared" si="71"/>
@@ -12232,15 +12226,15 @@
       </c>
       <c r="N140">
         <f t="shared" si="58"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O140" t="str">
         <f t="shared" si="59"/>
-        <v>student-evaluation-challenge-fsl-30-9y.pdf</v>
+        <v>advocate-current-issue.pdf</v>
       </c>
       <c r="P140" t="str">
         <f t="shared" si="60"/>
-        <v>student-evaluation-challenge-fsl-30-9y</v>
+        <v>advocate-current-issue</v>
       </c>
       <c r="Q140" t="str">
         <f t="shared" si="61"/>
@@ -12248,24 +12242,24 @@
       </c>
       <c r="R140" t="str">
         <f t="shared" si="62"/>
-        <v>Student Evaluation Challenge Fsl 30 9Y</v>
+        <v>Advocate Current Issue</v>
       </c>
       <c r="S140" t="str">
         <f t="shared" si="74"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
+        <v>&lt;br&gt;&lt;h3&gt;Student Activities&lt;/h3&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspAdvocate&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
       </c>
       <c r="T140" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/student-evaluation-challenge-fsl-30-9y.pdf"&gt;Student Evaluation Challenge Fsl 30 9Y&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-activities/advocate/advocate-current-issue.pdf"&gt;Advocate Current Issue&lt;/a&gt;</v>
       </c>
       <c r="U140" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/student-evaluation-challenge-fsl-30-9y.pdf"&gt;Student Evaluation Challenge Fsl 30 9Y&lt;/a&gt;</v>
+        <v>&lt;br&gt;&lt;h3&gt;Student Activities&lt;/h3&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspAdvocate&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-activities/advocate/advocate-current-issue.pdf"&gt;Advocate Current Issue&lt;/a&gt;</v>
       </c>
     </row>
     <row r="141" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C141">
         <f t="shared" si="56"/>
@@ -12281,15 +12275,15 @@
       </c>
       <c r="F141" t="str">
         <f t="shared" si="67"/>
-        <v>Programs</v>
+        <v>Student Activities</v>
       </c>
       <c r="G141">
         <f t="shared" si="68"/>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="69"/>
-        <v>French Immersion</v>
+        <v>Debate</v>
       </c>
       <c r="I141">
         <f t="shared" si="70"/>
@@ -12297,11 +12291,11 @@
       </c>
       <c r="J141" t="str">
         <f t="shared" si="71"/>
-        <v/>
+        <v>Forms</v>
       </c>
       <c r="K141">
         <f t="shared" si="72"/>
-        <v>-1</v>
+        <v>46</v>
       </c>
       <c r="L141" t="str">
         <f t="shared" si="73"/>
@@ -12313,15 +12307,15 @@
       </c>
       <c r="N141">
         <f t="shared" si="58"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="O141" t="str">
         <f t="shared" si="59"/>
-        <v>student-faq-application-challenge-fsl-30-9y.pdf</v>
+        <v>local-ack-of-risk.pdf</v>
       </c>
       <c r="P141" t="str">
         <f t="shared" si="60"/>
-        <v>student-faq-application-challenge-fsl-30-9y</v>
+        <v>local-ack-of-risk</v>
       </c>
       <c r="Q141" t="str">
         <f t="shared" si="61"/>
@@ -12329,24 +12323,24 @@
       </c>
       <c r="R141" t="str">
         <f t="shared" si="62"/>
-        <v>Student Faq Application Challenge Fsl 30 9Y</v>
+        <v>Local Ack Of Risk</v>
       </c>
       <c r="S141" t="str">
         <f t="shared" si="74"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
+        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspDebate&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
       </c>
       <c r="T141" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/student-faq-application-challenge-fsl-30-9y.pdf"&gt;Student Faq Application Challenge Fsl 30 9Y&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-activities/debate/forms/local-ack-of-risk.pdf"&gt;Local Ack Of Risk&lt;/a&gt;</v>
       </c>
       <c r="U141" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/student-faq-application-challenge-fsl-30-9y.pdf"&gt;Student Faq Application Challenge Fsl 30 9Y&lt;/a&gt;</v>
+        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspDebate&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-activities/debate/forms/local-ack-of-risk.pdf"&gt;Local Ack Of Risk&lt;/a&gt;</v>
       </c>
     </row>
     <row r="142" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C142">
         <f t="shared" si="56"/>
@@ -12362,15 +12356,15 @@
       </c>
       <c r="F142" t="str">
         <f t="shared" si="67"/>
-        <v>Programs</v>
+        <v>Student Activities</v>
       </c>
       <c r="G142">
         <f t="shared" si="68"/>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="69"/>
-        <v>French Immersion</v>
+        <v>Debate</v>
       </c>
       <c r="I142">
         <f t="shared" si="70"/>
@@ -12378,11 +12372,11 @@
       </c>
       <c r="J142" t="str">
         <f t="shared" si="71"/>
-        <v/>
+        <v>Forms</v>
       </c>
       <c r="K142">
         <f t="shared" si="72"/>
-        <v>-1</v>
+        <v>46</v>
       </c>
       <c r="L142" t="str">
         <f t="shared" si="73"/>
@@ -12394,15 +12388,15 @@
       </c>
       <c r="N142">
         <f t="shared" si="58"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="O142" t="str">
         <f t="shared" si="59"/>
-        <v>student-package-challenge-fsl-30-9y.pdf</v>
+        <v>membership.pdf</v>
       </c>
       <c r="P142" t="str">
         <f t="shared" si="60"/>
-        <v>student-package-challenge-fsl-30-9y</v>
+        <v>membership</v>
       </c>
       <c r="Q142" t="str">
         <f t="shared" si="61"/>
@@ -12410,7 +12404,7 @@
       </c>
       <c r="R142" t="str">
         <f t="shared" si="62"/>
-        <v>Student Package Challenge Fsl 30 9Y</v>
+        <v>Membership</v>
       </c>
       <c r="S142" t="str">
         <f t="shared" si="74"/>
@@ -12418,16 +12412,16 @@
       </c>
       <c r="T142" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/student-package-challenge-fsl-30-9y.pdf"&gt;Student Package Challenge Fsl 30 9Y&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-activities/debate/forms/membership.pdf"&gt;Membership&lt;/a&gt;</v>
       </c>
       <c r="U142" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/french-immersion/student-package-challenge-fsl-30-9y.pdf"&gt;Student Package Challenge Fsl 30 9Y&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-activities/debate/forms/membership.pdf"&gt;Membership&lt;/a&gt;</v>
       </c>
     </row>
     <row r="143" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C143">
         <f t="shared" si="56"/>
@@ -12443,19 +12437,19 @@
       </c>
       <c r="F143" t="str">
         <f t="shared" si="67"/>
-        <v>Programs</v>
+        <v>Student Activities</v>
       </c>
       <c r="G143">
         <f t="shared" si="68"/>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="69"/>
-        <v>Spanish Bilingual</v>
+        <v>Debate</v>
       </c>
       <c r="I143">
         <f t="shared" si="70"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J143" t="str">
         <f t="shared" si="71"/>
@@ -12475,15 +12469,15 @@
       </c>
       <c r="N143">
         <f t="shared" si="58"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O143" t="str">
         <f t="shared" si="59"/>
-        <v>spanish-bilingual.pdf</v>
+        <v>schedule.pdf</v>
       </c>
       <c r="P143" t="str">
         <f t="shared" si="60"/>
-        <v>spanish-bilingual</v>
+        <v>schedule</v>
       </c>
       <c r="Q143" t="str">
         <f t="shared" si="61"/>
@@ -12491,24 +12485,24 @@
       </c>
       <c r="R143" t="str">
         <f t="shared" si="62"/>
-        <v>Spanish Bilingual</v>
+        <v>Schedule</v>
       </c>
       <c r="S143" t="str">
         <f t="shared" si="74"/>
-        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspSpanish Bilingual&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
       </c>
       <c r="T143" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/programs/spanish-bilingual/spanish-bilingual.pdf"&gt;Spanish Bilingual&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-activities/debate/schedule.pdf"&gt;Schedule&lt;/a&gt;</v>
       </c>
       <c r="U143" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspSpanish Bilingual&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/programs/spanish-bilingual/spanish-bilingual.pdf"&gt;Spanish Bilingual&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-activities/debate/schedule.pdf"&gt;Schedule&lt;/a&gt;</v>
       </c>
     </row>
     <row r="144" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C144">
         <f t="shared" si="56"/>
@@ -12524,19 +12518,19 @@
       </c>
       <c r="F144" t="str">
         <f t="shared" si="67"/>
-        <v>Student Activities</v>
+        <v>Student Services</v>
       </c>
       <c r="G144">
         <f t="shared" si="68"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="69"/>
-        <v>Advocate</v>
+        <v/>
       </c>
       <c r="I144">
         <f t="shared" si="70"/>
-        <v>42</v>
+        <v>-1</v>
       </c>
       <c r="J144" t="str">
         <f t="shared" si="71"/>
@@ -12556,15 +12550,15 @@
       </c>
       <c r="N144">
         <f t="shared" si="58"/>
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="O144" t="str">
         <f t="shared" si="59"/>
-        <v>advocate-current-issue.pdf</v>
+        <v>exitpackage.pdf</v>
       </c>
       <c r="P144" t="str">
         <f t="shared" si="60"/>
-        <v>advocate-current-issue</v>
+        <v>exitpackage</v>
       </c>
       <c r="Q144" t="str">
         <f t="shared" si="61"/>
@@ -12572,24 +12566,24 @@
       </c>
       <c r="R144" t="str">
         <f t="shared" si="62"/>
-        <v>Advocate Current Issue</v>
+        <v>Exitpackage</v>
       </c>
       <c r="S144" t="str">
         <f t="shared" si="74"/>
-        <v>&lt;br&gt;&lt;h3&gt;Student Activities&lt;/h3&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspAdvocate&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
+        <v>&lt;br&gt;&lt;h3&gt;Student Services&lt;/h3&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
       </c>
       <c r="T144" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-activities/advocate/advocate-current-issue.pdf"&gt;Advocate Current Issue&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/exitpackage.pdf"&gt;Exitpackage&lt;/a&gt;</v>
       </c>
       <c r="U144" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&lt;h3&gt;Student Activities&lt;/h3&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspAdvocate&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-activities/advocate/advocate-current-issue.pdf"&gt;Advocate Current Issue&lt;/a&gt;</v>
+        <v>&lt;br&gt;&lt;h3&gt;Student Services&lt;/h3&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/exitpackage.pdf"&gt;Exitpackage&lt;/a&gt;</v>
       </c>
     </row>
     <row r="145" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C145">
         <f t="shared" si="56"/>
@@ -12605,19 +12599,19 @@
       </c>
       <c r="F145" t="str">
         <f t="shared" si="67"/>
-        <v>Student Activities</v>
+        <v>Student Services</v>
       </c>
       <c r="G145">
         <f t="shared" si="68"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="69"/>
-        <v>Debate</v>
+        <v>Forms</v>
       </c>
       <c r="I145">
         <f t="shared" si="70"/>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J145" t="str">
         <f t="shared" si="71"/>
@@ -12637,15 +12631,15 @@
       </c>
       <c r="N145">
         <f t="shared" si="58"/>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O145" t="str">
         <f t="shared" si="59"/>
-        <v>schedule.pdf</v>
+        <v>consent-to-publish.pdf</v>
       </c>
       <c r="P145" t="str">
         <f t="shared" si="60"/>
-        <v>schedule</v>
+        <v>consent-to-publish</v>
       </c>
       <c r="Q145" t="str">
         <f t="shared" si="61"/>
@@ -12653,24 +12647,24 @@
       </c>
       <c r="R145" t="str">
         <f t="shared" si="62"/>
-        <v>Schedule</v>
+        <v>Consent To Publish</v>
       </c>
       <c r="S145" t="str">
         <f t="shared" si="74"/>
-        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspDebate&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
+        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspForms&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
       </c>
       <c r="T145" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-activities/debate/schedule.pdf"&gt;Schedule&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/forms/consent-to-publish.pdf"&gt;Consent To Publish&lt;/a&gt;</v>
       </c>
       <c r="U145" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspDebate&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-activities/debate/schedule.pdf"&gt;Schedule&lt;/a&gt;</v>
+        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspForms&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/forms/consent-to-publish.pdf"&gt;Consent To Publish&lt;/a&gt;</v>
       </c>
     </row>
     <row r="146" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C146">
         <f t="shared" si="56"/>
@@ -12686,27 +12680,27 @@
       </c>
       <c r="F146" t="str">
         <f t="shared" si="67"/>
-        <v>Student Activities</v>
+        <v>Student Services</v>
       </c>
       <c r="G146">
         <f t="shared" si="68"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="69"/>
-        <v>Debate</v>
+        <v>Forms</v>
       </c>
       <c r="I146">
         <f t="shared" si="70"/>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J146" t="str">
         <f t="shared" si="71"/>
-        <v>Forms</v>
+        <v/>
       </c>
       <c r="K146">
         <f t="shared" si="72"/>
-        <v>46</v>
+        <v>-1</v>
       </c>
       <c r="L146" t="str">
         <f t="shared" si="73"/>
@@ -12718,15 +12712,15 @@
       </c>
       <c r="N146">
         <f t="shared" si="58"/>
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="O146" t="str">
         <f t="shared" si="59"/>
-        <v>local-ack-of-risk.pdf</v>
+        <v>external-records-request.pdf</v>
       </c>
       <c r="P146" t="str">
         <f t="shared" si="60"/>
-        <v>local-ack-of-risk</v>
+        <v>external-records-request</v>
       </c>
       <c r="Q146" t="str">
         <f t="shared" si="61"/>
@@ -12734,7 +12728,7 @@
       </c>
       <c r="R146" t="str">
         <f t="shared" si="62"/>
-        <v>Local Ack Of Risk</v>
+        <v>External Records Request</v>
       </c>
       <c r="S146" t="str">
         <f t="shared" si="74"/>
@@ -12742,16 +12736,16 @@
       </c>
       <c r="T146" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-activities/debate/forms/local-ack-of-risk.pdf"&gt;Local Ack Of Risk&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/forms/external-records-request.pdf"&gt;External Records Request&lt;/a&gt;</v>
       </c>
       <c r="U146" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-activities/debate/forms/local-ack-of-risk.pdf"&gt;Local Ack Of Risk&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/forms/external-records-request.pdf"&gt;External Records Request&lt;/a&gt;</v>
       </c>
     </row>
     <row r="147" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C147">
         <f t="shared" si="56"/>
@@ -12767,27 +12761,27 @@
       </c>
       <c r="F147" t="str">
         <f t="shared" si="67"/>
-        <v>Student Activities</v>
+        <v>Student Services</v>
       </c>
       <c r="G147">
         <f t="shared" si="68"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" si="69"/>
-        <v>Debate</v>
+        <v>Forms</v>
       </c>
       <c r="I147">
         <f t="shared" si="70"/>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J147" t="str">
         <f t="shared" si="71"/>
-        <v>Forms</v>
+        <v/>
       </c>
       <c r="K147">
         <f t="shared" si="72"/>
-        <v>46</v>
+        <v>-1</v>
       </c>
       <c r="L147" t="str">
         <f t="shared" si="73"/>
@@ -12799,15 +12793,15 @@
       </c>
       <c r="N147">
         <f t="shared" si="58"/>
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="O147" t="str">
         <f t="shared" si="59"/>
-        <v>membership.pdf</v>
+        <v>high-school-transfer.pdf</v>
       </c>
       <c r="P147" t="str">
         <f t="shared" si="60"/>
-        <v>membership</v>
+        <v>high-school-transfer</v>
       </c>
       <c r="Q147" t="str">
         <f t="shared" si="61"/>
@@ -12815,7 +12809,7 @@
       </c>
       <c r="R147" t="str">
         <f t="shared" si="62"/>
-        <v>Membership</v>
+        <v>High School Transfer</v>
       </c>
       <c r="S147" t="str">
         <f t="shared" si="74"/>
@@ -12823,16 +12817,16 @@
       </c>
       <c r="T147" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-activities/debate/forms/membership.pdf"&gt;Membership&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/forms/high-school-transfer.pdf"&gt;High School Transfer&lt;/a&gt;</v>
       </c>
       <c r="U147" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-activities/debate/forms/membership.pdf"&gt;Membership&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/forms/high-school-transfer.pdf"&gt;High School Transfer&lt;/a&gt;</v>
       </c>
     </row>
     <row r="148" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C148">
         <f t="shared" si="56"/>
@@ -12856,11 +12850,11 @@
       </c>
       <c r="H148" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>Forms</v>
       </c>
       <c r="I148">
         <f t="shared" si="70"/>
-        <v>-1</v>
+        <v>37</v>
       </c>
       <c r="J148" t="str">
         <f t="shared" si="71"/>
@@ -12880,15 +12874,15 @@
       </c>
       <c r="N148">
         <f t="shared" si="58"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O148" t="str">
         <f t="shared" si="59"/>
-        <v>exitpackage.pdf</v>
+        <v>media-coverage.pdf</v>
       </c>
       <c r="P148" t="str">
         <f t="shared" si="60"/>
-        <v>exitpackage</v>
+        <v>media-coverage</v>
       </c>
       <c r="Q148" t="str">
         <f t="shared" si="61"/>
@@ -12896,24 +12890,24 @@
       </c>
       <c r="R148" t="str">
         <f t="shared" si="62"/>
-        <v>Exitpackage</v>
+        <v>Media Coverage</v>
       </c>
       <c r="S148" t="str">
         <f t="shared" si="74"/>
-        <v>&lt;br&gt;&lt;h3&gt;Student Services&lt;/h3&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
       </c>
       <c r="T148" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/exitpackage.pdf"&gt;Exitpackage&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/forms/media-coverage.pdf"&gt;Media Coverage&lt;/a&gt;</v>
       </c>
       <c r="U148" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&lt;h3&gt;Student Services&lt;/h3&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/exitpackage.pdf"&gt;Exitpackage&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/forms/media-coverage.pdf"&gt;Media Coverage&lt;/a&gt;</v>
       </c>
     </row>
     <row r="149" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C149">
         <f t="shared" si="56"/>
@@ -12937,11 +12931,11 @@
       </c>
       <c r="H149" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>Forms</v>
       </c>
       <c r="I149">
         <f t="shared" si="70"/>
-        <v>-1</v>
+        <v>37</v>
       </c>
       <c r="J149" t="str">
         <f t="shared" si="71"/>
@@ -12961,15 +12955,15 @@
       </c>
       <c r="N149">
         <f t="shared" si="58"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O149" t="str">
         <f t="shared" si="59"/>
-        <v>gr12-info.pdf</v>
+        <v>medical-condition.pdf</v>
       </c>
       <c r="P149" t="str">
         <f t="shared" si="60"/>
-        <v>gr12-info</v>
+        <v>medical-condition</v>
       </c>
       <c r="Q149" t="str">
         <f t="shared" si="61"/>
@@ -12977,7 +12971,7 @@
       </c>
       <c r="R149" t="str">
         <f t="shared" si="62"/>
-        <v>Gr12 Info</v>
+        <v>Medical Condition</v>
       </c>
       <c r="S149" t="str">
         <f t="shared" si="74"/>
@@ -12985,16 +12979,16 @@
       </c>
       <c r="T149" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/gr12-info.pdf"&gt;Gr12 Info&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/forms/medical-condition.pdf"&gt;Medical Condition&lt;/a&gt;</v>
       </c>
       <c r="U149" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/gr12-info.pdf"&gt;Gr12 Info&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/forms/medical-condition.pdf"&gt;Medical Condition&lt;/a&gt;</v>
       </c>
     </row>
     <row r="150" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C150">
         <f t="shared" si="56"/>
@@ -13018,11 +13012,11 @@
       </c>
       <c r="H150" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>Forms</v>
       </c>
       <c r="I150">
         <f t="shared" si="70"/>
-        <v>-1</v>
+        <v>37</v>
       </c>
       <c r="J150" t="str">
         <f t="shared" si="71"/>
@@ -13042,15 +13036,15 @@
       </c>
       <c r="N150">
         <f t="shared" si="58"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O150" t="str">
         <f t="shared" si="59"/>
-        <v>learning-centre.pdf</v>
+        <v>severe-allergy.pdf</v>
       </c>
       <c r="P150" t="str">
         <f t="shared" si="60"/>
-        <v>learning-centre</v>
+        <v>severe-allergy</v>
       </c>
       <c r="Q150" t="str">
         <f t="shared" si="61"/>
@@ -13058,7 +13052,7 @@
       </c>
       <c r="R150" t="str">
         <f t="shared" si="62"/>
-        <v>Learning Centre</v>
+        <v>Severe Allergy</v>
       </c>
       <c r="S150" t="str">
         <f t="shared" si="74"/>
@@ -13066,16 +13060,16 @@
       </c>
       <c r="T150" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/learning-centre.pdf"&gt;Learning Centre&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/forms/severe-allergy.pdf"&gt;Severe Allergy&lt;/a&gt;</v>
       </c>
       <c r="U150" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/learning-centre.pdf"&gt;Learning Centre&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/forms/severe-allergy.pdf"&gt;Severe Allergy&lt;/a&gt;</v>
       </c>
     </row>
     <row r="151" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C151">
         <f t="shared" si="56"/>
@@ -13127,11 +13121,11 @@
       </c>
       <c r="O151" t="str">
         <f t="shared" si="59"/>
-        <v>PLP-guide.pdf</v>
+        <v>gr12-info.pdf</v>
       </c>
       <c r="P151" t="str">
         <f t="shared" si="60"/>
-        <v>PLP-guide</v>
+        <v>gr12-info</v>
       </c>
       <c r="Q151" t="str">
         <f t="shared" si="61"/>
@@ -13139,7 +13133,7 @@
       </c>
       <c r="R151" t="str">
         <f t="shared" si="62"/>
-        <v>Plp Guide</v>
+        <v>Gr12 Info</v>
       </c>
       <c r="S151" t="str">
         <f t="shared" si="74"/>
@@ -13147,16 +13141,16 @@
       </c>
       <c r="T151" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/PLP-guide.pdf"&gt;Plp Guide&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/gr12-info.pdf"&gt;Gr12 Info&lt;/a&gt;</v>
       </c>
       <c r="U151" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/PLP-guide.pdf"&gt;Plp Guide&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/gr12-info.pdf"&gt;Gr12 Info&lt;/a&gt;</v>
       </c>
     </row>
     <row r="152" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C152">
         <f t="shared" si="56"/>
@@ -13208,11 +13202,11 @@
       </c>
       <c r="O152" t="str">
         <f t="shared" si="59"/>
-        <v>post-secondary-visits.pdf</v>
+        <v>learning-centre.pdf</v>
       </c>
       <c r="P152" t="str">
         <f t="shared" si="60"/>
-        <v>post-secondary-visits</v>
+        <v>learning-centre</v>
       </c>
       <c r="Q152" t="str">
         <f t="shared" si="61"/>
@@ -13220,7 +13214,7 @@
       </c>
       <c r="R152" t="str">
         <f t="shared" si="62"/>
-        <v>Post Secondary Visits</v>
+        <v>Learning Centre</v>
       </c>
       <c r="S152" t="str">
         <f t="shared" si="74"/>
@@ -13228,16 +13222,16 @@
       </c>
       <c r="T152" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/post-secondary-visits.pdf"&gt;Post Secondary Visits&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/learning-centre.pdf"&gt;Learning Centre&lt;/a&gt;</v>
       </c>
       <c r="U152" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/post-secondary-visits.pdf"&gt;Post Secondary Visits&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/learning-centre.pdf"&gt;Learning Centre&lt;/a&gt;</v>
       </c>
     </row>
     <row r="153" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C153">
         <f t="shared" si="56"/>
@@ -13261,11 +13255,11 @@
       </c>
       <c r="H153" t="str">
         <f t="shared" si="69"/>
-        <v>Forms</v>
+        <v/>
       </c>
       <c r="I153">
         <f t="shared" si="70"/>
-        <v>37</v>
+        <v>-1</v>
       </c>
       <c r="J153" t="str">
         <f t="shared" si="71"/>
@@ -13285,15 +13279,15 @@
       </c>
       <c r="N153">
         <f t="shared" si="58"/>
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O153" t="str">
         <f t="shared" si="59"/>
-        <v>consent-to-publish.pdf</v>
+        <v>PLP-guide.pdf</v>
       </c>
       <c r="P153" t="str">
         <f t="shared" si="60"/>
-        <v>consent-to-publish</v>
+        <v>PLP-guide</v>
       </c>
       <c r="Q153" t="str">
         <f t="shared" si="61"/>
@@ -13301,24 +13295,24 @@
       </c>
       <c r="R153" t="str">
         <f t="shared" si="62"/>
-        <v>Consent To Publish</v>
+        <v>Plp Guide</v>
       </c>
       <c r="S153" t="str">
         <f t="shared" si="74"/>
-        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspForms&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
       </c>
       <c r="T153" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/forms/consent-to-publish.pdf"&gt;Consent To Publish&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/PLP-guide.pdf"&gt;Plp Guide&lt;/a&gt;</v>
       </c>
       <c r="U153" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspForms&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/forms/consent-to-publish.pdf"&gt;Consent To Publish&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/PLP-guide.pdf"&gt;Plp Guide&lt;/a&gt;</v>
       </c>
     </row>
     <row r="154" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C154">
         <f t="shared" si="56"/>
@@ -13342,11 +13336,11 @@
       </c>
       <c r="H154" t="str">
         <f t="shared" si="69"/>
-        <v>Forms</v>
+        <v/>
       </c>
       <c r="I154">
         <f t="shared" si="70"/>
-        <v>37</v>
+        <v>-1</v>
       </c>
       <c r="J154" t="str">
         <f t="shared" si="71"/>
@@ -13366,15 +13360,15 @@
       </c>
       <c r="N154">
         <f t="shared" si="58"/>
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O154" t="str">
         <f t="shared" si="59"/>
-        <v>external-records-request.pdf</v>
+        <v>post-secondary-visits.pdf</v>
       </c>
       <c r="P154" t="str">
         <f t="shared" si="60"/>
-        <v>external-records-request</v>
+        <v>post-secondary-visits</v>
       </c>
       <c r="Q154" t="str">
         <f t="shared" si="61"/>
@@ -13382,7 +13376,7 @@
       </c>
       <c r="R154" t="str">
         <f t="shared" si="62"/>
-        <v>External Records Request</v>
+        <v>Post Secondary Visits</v>
       </c>
       <c r="S154" t="str">
         <f t="shared" si="74"/>
@@ -13390,16 +13384,16 @@
       </c>
       <c r="T154" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/forms/external-records-request.pdf"&gt;External Records Request&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/post-secondary-visits.pdf"&gt;Post Secondary Visits&lt;/a&gt;</v>
       </c>
       <c r="U154" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/forms/external-records-request.pdf"&gt;External Records Request&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/post-secondary-visits.pdf"&gt;Post Secondary Visits&lt;/a&gt;</v>
       </c>
     </row>
     <row r="155" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C155">
         <f t="shared" si="56"/>
@@ -13423,19 +13417,19 @@
       </c>
       <c r="H155" t="str">
         <f t="shared" si="69"/>
-        <v>Forms</v>
+        <v>Registration</v>
       </c>
       <c r="I155">
         <f t="shared" si="70"/>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J155" t="str">
         <f t="shared" si="71"/>
-        <v/>
+        <v>2014 15</v>
       </c>
       <c r="K155">
         <f t="shared" si="72"/>
-        <v>-1</v>
+        <v>52</v>
       </c>
       <c r="L155" t="str">
         <f t="shared" si="73"/>
@@ -13447,15 +13441,15 @@
       </c>
       <c r="N155">
         <f t="shared" si="58"/>
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="O155" t="str">
         <f t="shared" si="59"/>
-        <v>high-school-transfer.pdf</v>
+        <v>future-course-list.pdf</v>
       </c>
       <c r="P155" t="str">
         <f t="shared" si="60"/>
-        <v>high-school-transfer</v>
+        <v>future-course-list</v>
       </c>
       <c r="Q155" t="str">
         <f t="shared" si="61"/>
@@ -13463,24 +13457,24 @@
       </c>
       <c r="R155" t="str">
         <f t="shared" si="62"/>
-        <v>High School Transfer</v>
+        <v>Future Course List</v>
       </c>
       <c r="S155" t="str">
         <f t="shared" si="74"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
+        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspRegistration&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
       </c>
       <c r="T155" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/forms/high-school-transfer.pdf"&gt;High School Transfer&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-course-list.pdf"&gt;Future Course List&lt;/a&gt;</v>
       </c>
       <c r="U155" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/forms/high-school-transfer.pdf"&gt;High School Transfer&lt;/a&gt;</v>
+        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspRegistration&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-course-list.pdf"&gt;Future Course List&lt;/a&gt;</v>
       </c>
     </row>
     <row r="156" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C156">
         <f t="shared" si="56"/>
@@ -13504,19 +13498,19 @@
       </c>
       <c r="H156" t="str">
         <f t="shared" si="69"/>
-        <v>Forms</v>
+        <v>Registration</v>
       </c>
       <c r="I156">
         <f t="shared" si="70"/>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J156" t="str">
         <f t="shared" si="71"/>
-        <v/>
+        <v>2014 15</v>
       </c>
       <c r="K156">
         <f t="shared" si="72"/>
-        <v>-1</v>
+        <v>52</v>
       </c>
       <c r="L156" t="str">
         <f t="shared" si="73"/>
@@ -13528,15 +13522,15 @@
       </c>
       <c r="N156">
         <f t="shared" si="58"/>
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="O156" t="str">
         <f t="shared" si="59"/>
-        <v>media-coverage.pdf</v>
+        <v>future-gr10-selection-en.pdf</v>
       </c>
       <c r="P156" t="str">
         <f t="shared" si="60"/>
-        <v>media-coverage</v>
+        <v>future-gr10-selection-en</v>
       </c>
       <c r="Q156" t="str">
         <f t="shared" si="61"/>
@@ -13544,7 +13538,7 @@
       </c>
       <c r="R156" t="str">
         <f t="shared" si="62"/>
-        <v>Media Coverage</v>
+        <v>Future Gr10 Selection En</v>
       </c>
       <c r="S156" t="str">
         <f t="shared" si="74"/>
@@ -13552,16 +13546,16 @@
       </c>
       <c r="T156" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/forms/media-coverage.pdf"&gt;Media Coverage&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr10-selection-en.pdf"&gt;Future Gr10 Selection En&lt;/a&gt;</v>
       </c>
       <c r="U156" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/forms/media-coverage.pdf"&gt;Media Coverage&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr10-selection-en.pdf"&gt;Future Gr10 Selection En&lt;/a&gt;</v>
       </c>
     </row>
     <row r="157" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C157">
         <f t="shared" si="56"/>
@@ -13585,19 +13579,19 @@
       </c>
       <c r="H157" t="str">
         <f t="shared" si="69"/>
-        <v>Forms</v>
+        <v>Registration</v>
       </c>
       <c r="I157">
         <f t="shared" si="70"/>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J157" t="str">
         <f t="shared" si="71"/>
-        <v/>
+        <v>2014 15</v>
       </c>
       <c r="K157">
         <f t="shared" si="72"/>
-        <v>-1</v>
+        <v>52</v>
       </c>
       <c r="L157" t="str">
         <f t="shared" si="73"/>
@@ -13609,15 +13603,15 @@
       </c>
       <c r="N157">
         <f t="shared" si="58"/>
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="O157" t="str">
         <f t="shared" si="59"/>
-        <v>medical-condition.pdf</v>
+        <v>future-gr10-selection-es.pdf</v>
       </c>
       <c r="P157" t="str">
         <f t="shared" si="60"/>
-        <v>medical-condition</v>
+        <v>future-gr10-selection-es</v>
       </c>
       <c r="Q157" t="str">
         <f t="shared" si="61"/>
@@ -13625,7 +13619,7 @@
       </c>
       <c r="R157" t="str">
         <f t="shared" si="62"/>
-        <v>Medical Condition</v>
+        <v>Future Gr10 Selection Es</v>
       </c>
       <c r="S157" t="str">
         <f t="shared" si="74"/>
@@ -13633,16 +13627,16 @@
       </c>
       <c r="T157" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/forms/medical-condition.pdf"&gt;Medical Condition&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr10-selection-es.pdf"&gt;Future Gr10 Selection Es&lt;/a&gt;</v>
       </c>
       <c r="U157" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/forms/medical-condition.pdf"&gt;Medical Condition&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr10-selection-es.pdf"&gt;Future Gr10 Selection Es&lt;/a&gt;</v>
       </c>
     </row>
     <row r="158" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C158">
         <f t="shared" si="56"/>
@@ -13666,19 +13660,19 @@
       </c>
       <c r="H158" t="str">
         <f t="shared" si="69"/>
-        <v>Forms</v>
+        <v>Registration</v>
       </c>
       <c r="I158">
         <f t="shared" si="70"/>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J158" t="str">
         <f t="shared" si="71"/>
-        <v/>
+        <v>2014 15</v>
       </c>
       <c r="K158">
         <f t="shared" si="72"/>
-        <v>-1</v>
+        <v>52</v>
       </c>
       <c r="L158" t="str">
         <f t="shared" si="73"/>
@@ -13690,15 +13684,15 @@
       </c>
       <c r="N158">
         <f t="shared" si="58"/>
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="O158" t="str">
         <f t="shared" si="59"/>
-        <v>severe-allergy.pdf</v>
+        <v>future-gr10-selection-fr.pdf</v>
       </c>
       <c r="P158" t="str">
         <f t="shared" si="60"/>
-        <v>severe-allergy</v>
+        <v>future-gr10-selection-fr</v>
       </c>
       <c r="Q158" t="str">
         <f t="shared" si="61"/>
@@ -13706,7 +13700,7 @@
       </c>
       <c r="R158" t="str">
         <f t="shared" si="62"/>
-        <v>Severe Allergy</v>
+        <v>Future Gr10 Selection Fr</v>
       </c>
       <c r="S158" t="str">
         <f t="shared" si="74"/>
@@ -13714,16 +13708,16 @@
       </c>
       <c r="T158" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/forms/severe-allergy.pdf"&gt;Severe Allergy&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr10-selection-fr.pdf"&gt;Future Gr10 Selection Fr&lt;/a&gt;</v>
       </c>
       <c r="U158" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/forms/severe-allergy.pdf"&gt;Severe Allergy&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr10-selection-fr.pdf"&gt;Future Gr10 Selection Fr&lt;/a&gt;</v>
       </c>
     </row>
     <row r="159" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C159">
         <f t="shared" si="56"/>
@@ -13775,11 +13769,11 @@
       </c>
       <c r="O159" t="str">
         <f t="shared" si="59"/>
-        <v>future-course-list.pdf</v>
+        <v>future-gr11-selection-en.pdf</v>
       </c>
       <c r="P159" t="str">
         <f t="shared" si="60"/>
-        <v>future-course-list</v>
+        <v>future-gr11-selection-en</v>
       </c>
       <c r="Q159" t="str">
         <f t="shared" si="61"/>
@@ -13787,24 +13781,24 @@
       </c>
       <c r="R159" t="str">
         <f t="shared" si="62"/>
-        <v>Future Course List</v>
+        <v>Future Gr11 Selection En</v>
       </c>
       <c r="S159" t="str">
         <f t="shared" si="74"/>
-        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspRegistration&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
       </c>
       <c r="T159" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-course-list.pdf"&gt;Future Course List&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr11-selection-en.pdf"&gt;Future Gr11 Selection En&lt;/a&gt;</v>
       </c>
       <c r="U159" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspRegistration&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-course-list.pdf"&gt;Future Course List&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr11-selection-en.pdf"&gt;Future Gr11 Selection En&lt;/a&gt;</v>
       </c>
     </row>
     <row r="160" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C160">
         <f t="shared" si="56"/>
@@ -13856,11 +13850,11 @@
       </c>
       <c r="O160" t="str">
         <f t="shared" si="59"/>
-        <v>future-gr10-selection-en.pdf</v>
+        <v>future-gr11-selection-es.pdf</v>
       </c>
       <c r="P160" t="str">
         <f t="shared" si="60"/>
-        <v>future-gr10-selection-en</v>
+        <v>future-gr11-selection-es</v>
       </c>
       <c r="Q160" t="str">
         <f t="shared" si="61"/>
@@ -13868,7 +13862,7 @@
       </c>
       <c r="R160" t="str">
         <f t="shared" si="62"/>
-        <v>Future Gr10 Selection En</v>
+        <v>Future Gr11 Selection Es</v>
       </c>
       <c r="S160" t="str">
         <f t="shared" si="74"/>
@@ -13876,16 +13870,16 @@
       </c>
       <c r="T160" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr10-selection-en.pdf"&gt;Future Gr10 Selection En&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr11-selection-es.pdf"&gt;Future Gr11 Selection Es&lt;/a&gt;</v>
       </c>
       <c r="U160" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr10-selection-en.pdf"&gt;Future Gr10 Selection En&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr11-selection-es.pdf"&gt;Future Gr11 Selection Es&lt;/a&gt;</v>
       </c>
     </row>
     <row r="161" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C161">
         <f t="shared" si="56"/>
@@ -13937,11 +13931,11 @@
       </c>
       <c r="O161" t="str">
         <f t="shared" si="59"/>
-        <v>future-gr10-selection-es.pdf</v>
+        <v>future-gr11-selection-fr.pdf</v>
       </c>
       <c r="P161" t="str">
         <f t="shared" si="60"/>
-        <v>future-gr10-selection-es</v>
+        <v>future-gr11-selection-fr</v>
       </c>
       <c r="Q161" t="str">
         <f t="shared" si="61"/>
@@ -13949,7 +13943,7 @@
       </c>
       <c r="R161" t="str">
         <f t="shared" si="62"/>
-        <v>Future Gr10 Selection Es</v>
+        <v>Future Gr11 Selection Fr</v>
       </c>
       <c r="S161" t="str">
         <f t="shared" si="74"/>
@@ -13957,16 +13951,16 @@
       </c>
       <c r="T161" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr10-selection-es.pdf"&gt;Future Gr10 Selection Es&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr11-selection-fr.pdf"&gt;Future Gr11 Selection Fr&lt;/a&gt;</v>
       </c>
       <c r="U161" t="str">
         <f t="shared" si="64"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr10-selection-es.pdf"&gt;Future Gr10 Selection Es&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr11-selection-fr.pdf"&gt;Future Gr11 Selection Fr&lt;/a&gt;</v>
       </c>
     </row>
     <row r="162" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C162">
         <f t="shared" ref="C162:C178" si="75">SEARCH("/",$B162)</f>
@@ -14013,16 +14007,16 @@
         <v>-1</v>
       </c>
       <c r="N162">
-        <f t="shared" ref="N162:N193" si="77">IF(M162 &gt; 0,M162,IF(K162 &gt; 0,K162,IF(I162 &gt; 0, I162, IF(G162 &gt; 0, G162, IF(E162 &gt; 0, E162, 0)))))</f>
+        <f t="shared" ref="N162:N178" si="77">IF(M162 &gt; 0,M162,IF(K162 &gt; 0,K162,IF(I162 &gt; 0, I162, IF(G162 &gt; 0, G162, IF(E162 &gt; 0, E162, 0)))))</f>
         <v>52</v>
       </c>
       <c r="O162" t="str">
-        <f t="shared" ref="O162:O193" si="78">IFERROR(MID($B162,N162 + 1,100),"")</f>
-        <v>future-gr10-selection-fr.pdf</v>
+        <f t="shared" ref="O162:O178" si="78">IFERROR(MID($B162,N162 + 1,100),"")</f>
+        <v>future-gr12-selection-en.pdf</v>
       </c>
       <c r="P162" t="str">
-        <f t="shared" ref="P162:P193" si="79">LEFT(O162, LEN(O162) - 4)</f>
-        <v>future-gr10-selection-fr</v>
+        <f t="shared" ref="P162:P178" si="79">LEFT(O162, LEN(O162) - 4)</f>
+        <v>future-gr12-selection-en</v>
       </c>
       <c r="Q162" t="str">
         <f t="shared" ref="Q162:Q178" si="80">MID(O162, LEN(O162) - 3, 100)</f>
@@ -14030,7 +14024,7 @@
       </c>
       <c r="R162" t="str">
         <f t="shared" ref="R162:R178" si="81">PROPER(SUBSTITUTE(P162,"-"," "))</f>
-        <v>Future Gr10 Selection Fr</v>
+        <v>Future Gr12 Selection En</v>
       </c>
       <c r="S162" t="str">
         <f t="shared" si="74"/>
@@ -14038,16 +14032,16 @@
       </c>
       <c r="T162" t="str">
         <f t="shared" ref="T162:T178" si="82">"&lt;a target=""_blank"" href=""/"&amp; $B162 &amp; """&gt;" &amp; R162 &amp; "&lt;/a&gt;"</f>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr10-selection-fr.pdf"&gt;Future Gr10 Selection Fr&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr12-selection-en.pdf"&gt;Future Gr12 Selection En&lt;/a&gt;</v>
       </c>
       <c r="U162" t="str">
-        <f t="shared" ref="U162:U193" si="83">S162 &amp; T162</f>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr10-selection-fr.pdf"&gt;Future Gr10 Selection Fr&lt;/a&gt;</v>
+        <f t="shared" ref="U162:U178" si="83">S162 &amp; T162</f>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr12-selection-en.pdf"&gt;Future Gr12 Selection En&lt;/a&gt;</v>
       </c>
     </row>
     <row r="163" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C163">
         <f t="shared" si="75"/>
@@ -14099,11 +14093,11 @@
       </c>
       <c r="O163" t="str">
         <f t="shared" si="78"/>
-        <v>future-gr11-selection-en.pdf</v>
+        <v>future-gr12-selection-es.pdf</v>
       </c>
       <c r="P163" t="str">
         <f t="shared" si="79"/>
-        <v>future-gr11-selection-en</v>
+        <v>future-gr12-selection-es</v>
       </c>
       <c r="Q163" t="str">
         <f t="shared" si="80"/>
@@ -14111,7 +14105,7 @@
       </c>
       <c r="R163" t="str">
         <f t="shared" si="81"/>
-        <v>Future Gr11 Selection En</v>
+        <v>Future Gr12 Selection Es</v>
       </c>
       <c r="S163" t="str">
         <f t="shared" si="74"/>
@@ -14119,16 +14113,16 @@
       </c>
       <c r="T163" t="str">
         <f t="shared" si="82"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr11-selection-en.pdf"&gt;Future Gr11 Selection En&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr12-selection-es.pdf"&gt;Future Gr12 Selection Es&lt;/a&gt;</v>
       </c>
       <c r="U163" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr11-selection-en.pdf"&gt;Future Gr11 Selection En&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr12-selection-es.pdf"&gt;Future Gr12 Selection Es&lt;/a&gt;</v>
       </c>
     </row>
     <row r="164" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C164">
         <f t="shared" si="75"/>
@@ -14180,11 +14174,11 @@
       </c>
       <c r="O164" t="str">
         <f t="shared" si="78"/>
-        <v>future-gr11-selection-es.pdf</v>
+        <v>future-gr12-selection-fr.pdf</v>
       </c>
       <c r="P164" t="str">
         <f t="shared" si="79"/>
-        <v>future-gr11-selection-es</v>
+        <v>future-gr12-selection-fr</v>
       </c>
       <c r="Q164" t="str">
         <f t="shared" si="80"/>
@@ -14192,7 +14186,7 @@
       </c>
       <c r="R164" t="str">
         <f t="shared" si="81"/>
-        <v>Future Gr11 Selection Es</v>
+        <v>Future Gr12 Selection Fr</v>
       </c>
       <c r="S164" t="str">
         <f t="shared" si="74"/>
@@ -14200,16 +14194,16 @@
       </c>
       <c r="T164" t="str">
         <f t="shared" si="82"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr11-selection-es.pdf"&gt;Future Gr11 Selection Es&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr12-selection-fr.pdf"&gt;Future Gr12 Selection Fr&lt;/a&gt;</v>
       </c>
       <c r="U164" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr11-selection-es.pdf"&gt;Future Gr11 Selection Es&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr12-selection-fr.pdf"&gt;Future Gr12 Selection Fr&lt;/a&gt;</v>
       </c>
     </row>
     <row r="165" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C165">
         <f t="shared" si="75"/>
@@ -14261,11 +14255,11 @@
       </c>
       <c r="O165" t="str">
         <f t="shared" si="78"/>
-        <v>future-gr11-selection-fr.pdf</v>
+        <v>future-in-boundary.pdf</v>
       </c>
       <c r="P165" t="str">
         <f t="shared" si="79"/>
-        <v>future-gr11-selection-fr</v>
+        <v>future-in-boundary</v>
       </c>
       <c r="Q165" t="str">
         <f t="shared" si="80"/>
@@ -14273,7 +14267,7 @@
       </c>
       <c r="R165" t="str">
         <f t="shared" si="81"/>
-        <v>Future Gr11 Selection Fr</v>
+        <v>Future In Boundary</v>
       </c>
       <c r="S165" t="str">
         <f t="shared" si="74"/>
@@ -14281,16 +14275,16 @@
       </c>
       <c r="T165" t="str">
         <f t="shared" si="82"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr11-selection-fr.pdf"&gt;Future Gr11 Selection Fr&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-in-boundary.pdf"&gt;Future In Boundary&lt;/a&gt;</v>
       </c>
       <c r="U165" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr11-selection-fr.pdf"&gt;Future Gr11 Selection Fr&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-in-boundary.pdf"&gt;Future In Boundary&lt;/a&gt;</v>
       </c>
     </row>
     <row r="166" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C166">
         <f t="shared" si="75"/>
@@ -14342,11 +14336,11 @@
       </c>
       <c r="O166" t="str">
         <f t="shared" si="78"/>
-        <v>future-gr12-selection-en.pdf</v>
+        <v>future-KE-selection.pdf</v>
       </c>
       <c r="P166" t="str">
         <f t="shared" si="79"/>
-        <v>future-gr12-selection-en</v>
+        <v>future-KE-selection</v>
       </c>
       <c r="Q166" t="str">
         <f t="shared" si="80"/>
@@ -14354,7 +14348,7 @@
       </c>
       <c r="R166" t="str">
         <f t="shared" si="81"/>
-        <v>Future Gr12 Selection En</v>
+        <v>Future Ke Selection</v>
       </c>
       <c r="S166" t="str">
         <f t="shared" si="74"/>
@@ -14362,16 +14356,16 @@
       </c>
       <c r="T166" t="str">
         <f t="shared" si="82"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr12-selection-en.pdf"&gt;Future Gr12 Selection En&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-KE-selection.pdf"&gt;Future Ke Selection&lt;/a&gt;</v>
       </c>
       <c r="U166" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr12-selection-en.pdf"&gt;Future Gr12 Selection En&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-KE-selection.pdf"&gt;Future Ke Selection&lt;/a&gt;</v>
       </c>
     </row>
     <row r="167" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C167">
         <f t="shared" si="75"/>
@@ -14423,11 +14417,11 @@
       </c>
       <c r="O167" t="str">
         <f t="shared" si="78"/>
-        <v>future-gr12-selection-es.pdf</v>
+        <v>future-out-boundary.pdf</v>
       </c>
       <c r="P167" t="str">
         <f t="shared" si="79"/>
-        <v>future-gr12-selection-es</v>
+        <v>future-out-boundary</v>
       </c>
       <c r="Q167" t="str">
         <f t="shared" si="80"/>
@@ -14435,7 +14429,7 @@
       </c>
       <c r="R167" t="str">
         <f t="shared" si="81"/>
-        <v>Future Gr12 Selection Es</v>
+        <v>Future Out Boundary</v>
       </c>
       <c r="S167" t="str">
         <f t="shared" si="74"/>
@@ -14443,16 +14437,16 @@
       </c>
       <c r="T167" t="str">
         <f t="shared" si="82"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr12-selection-es.pdf"&gt;Future Gr12 Selection Es&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-out-boundary.pdf"&gt;Future Out Boundary&lt;/a&gt;</v>
       </c>
       <c r="U167" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr12-selection-es.pdf"&gt;Future Gr12 Selection Es&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-out-boundary.pdf"&gt;Future Out Boundary&lt;/a&gt;</v>
       </c>
     </row>
     <row r="168" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C168">
         <f t="shared" si="75"/>
@@ -14504,11 +14498,11 @@
       </c>
       <c r="O168" t="str">
         <f t="shared" si="78"/>
-        <v>future-gr12-selection-fr.pdf</v>
+        <v>future-registration-form.pdf</v>
       </c>
       <c r="P168" t="str">
         <f t="shared" si="79"/>
-        <v>future-gr12-selection-fr</v>
+        <v>future-registration-form</v>
       </c>
       <c r="Q168" t="str">
         <f t="shared" si="80"/>
@@ -14516,7 +14510,7 @@
       </c>
       <c r="R168" t="str">
         <f t="shared" si="81"/>
-        <v>Future Gr12 Selection Fr</v>
+        <v>Future Registration Form</v>
       </c>
       <c r="S168" t="str">
         <f t="shared" si="74"/>
@@ -14524,16 +14518,16 @@
       </c>
       <c r="T168" t="str">
         <f t="shared" si="82"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr12-selection-fr.pdf"&gt;Future Gr12 Selection Fr&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-registration-form.pdf"&gt;Future Registration Form&lt;/a&gt;</v>
       </c>
       <c r="U168" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-gr12-selection-fr.pdf"&gt;Future Gr12 Selection Fr&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-registration-form.pdf"&gt;Future Registration Form&lt;/a&gt;</v>
       </c>
     </row>
     <row r="169" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C169">
         <f t="shared" si="75"/>
@@ -14585,11 +14579,11 @@
       </c>
       <c r="O169" t="str">
         <f t="shared" si="78"/>
-        <v>future-in-boundary.pdf</v>
+        <v>future-registration-guide.pdf</v>
       </c>
       <c r="P169" t="str">
         <f t="shared" si="79"/>
-        <v>future-in-boundary</v>
+        <v>future-registration-guide</v>
       </c>
       <c r="Q169" t="str">
         <f t="shared" si="80"/>
@@ -14597,7 +14591,7 @@
       </c>
       <c r="R169" t="str">
         <f t="shared" si="81"/>
-        <v>Future In Boundary</v>
+        <v>Future Registration Guide</v>
       </c>
       <c r="S169" t="str">
         <f t="shared" si="74"/>
@@ -14605,16 +14599,16 @@
       </c>
       <c r="T169" t="str">
         <f t="shared" si="82"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-in-boundary.pdf"&gt;Future In Boundary&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-registration-guide.pdf"&gt;Future Registration Guide&lt;/a&gt;</v>
       </c>
       <c r="U169" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-in-boundary.pdf"&gt;Future In Boundary&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-registration-guide.pdf"&gt;Future Registration Guide&lt;/a&gt;</v>
       </c>
     </row>
     <row r="170" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C170">
         <f t="shared" si="75"/>
@@ -14638,7 +14632,7 @@
       </c>
       <c r="H170" t="str">
         <f t="shared" si="69"/>
-        <v>Registration</v>
+        <v>Scholarships</v>
       </c>
       <c r="I170">
         <f t="shared" si="70"/>
@@ -14646,11 +14640,11 @@
       </c>
       <c r="J170" t="str">
         <f t="shared" si="71"/>
-        <v>2014 15</v>
+        <v/>
       </c>
       <c r="K170">
         <f t="shared" si="72"/>
-        <v>52</v>
+        <v>-1</v>
       </c>
       <c r="L170" t="str">
         <f t="shared" si="73"/>
@@ -14662,15 +14656,15 @@
       </c>
       <c r="N170">
         <f t="shared" si="77"/>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="O170" t="str">
         <f t="shared" si="78"/>
-        <v>future-KE-selection.pdf</v>
+        <v>4-step-process.pdf</v>
       </c>
       <c r="P170" t="str">
         <f t="shared" si="79"/>
-        <v>future-KE-selection</v>
+        <v>4-step-process</v>
       </c>
       <c r="Q170" t="str">
         <f t="shared" si="80"/>
@@ -14678,24 +14672,24 @@
       </c>
       <c r="R170" t="str">
         <f t="shared" si="81"/>
-        <v>Future Ke Selection</v>
+        <v>4 Step Process</v>
       </c>
       <c r="S170" t="str">
         <f t="shared" si="74"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
+        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspScholarships&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
       </c>
       <c r="T170" t="str">
         <f t="shared" si="82"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-KE-selection.pdf"&gt;Future Ke Selection&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/scholarships/4-step-process.pdf"&gt;4 Step Process&lt;/a&gt;</v>
       </c>
       <c r="U170" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-KE-selection.pdf"&gt;Future Ke Selection&lt;/a&gt;</v>
+        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspScholarships&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/scholarships/4-step-process.pdf"&gt;4 Step Process&lt;/a&gt;</v>
       </c>
     </row>
     <row r="171" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C171">
         <f t="shared" si="75"/>
@@ -14719,7 +14713,7 @@
       </c>
       <c r="H171" t="str">
         <f t="shared" si="69"/>
-        <v>Registration</v>
+        <v>Scholarships</v>
       </c>
       <c r="I171">
         <f t="shared" si="70"/>
@@ -14727,11 +14721,11 @@
       </c>
       <c r="J171" t="str">
         <f t="shared" si="71"/>
-        <v>2014 15</v>
+        <v/>
       </c>
       <c r="K171">
         <f t="shared" si="72"/>
-        <v>52</v>
+        <v>-1</v>
       </c>
       <c r="L171" t="str">
         <f t="shared" si="73"/>
@@ -14743,15 +14737,15 @@
       </c>
       <c r="N171">
         <f t="shared" si="77"/>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="O171" t="str">
         <f t="shared" si="78"/>
-        <v>future-out-boundary.pdf</v>
+        <v>scholarship-5ws.pdf</v>
       </c>
       <c r="P171" t="str">
         <f t="shared" si="79"/>
-        <v>future-out-boundary</v>
+        <v>scholarship-5ws</v>
       </c>
       <c r="Q171" t="str">
         <f t="shared" si="80"/>
@@ -14759,7 +14753,7 @@
       </c>
       <c r="R171" t="str">
         <f t="shared" si="81"/>
-        <v>Future Out Boundary</v>
+        <v>Scholarship 5Ws</v>
       </c>
       <c r="S171" t="str">
         <f t="shared" si="74"/>
@@ -14767,16 +14761,16 @@
       </c>
       <c r="T171" t="str">
         <f t="shared" si="82"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-out-boundary.pdf"&gt;Future Out Boundary&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/scholarships/scholarship-5ws.pdf"&gt;Scholarship 5Ws&lt;/a&gt;</v>
       </c>
       <c r="U171" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-out-boundary.pdf"&gt;Future Out Boundary&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/scholarships/scholarship-5ws.pdf"&gt;Scholarship 5Ws&lt;/a&gt;</v>
       </c>
     </row>
     <row r="172" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C172">
         <f t="shared" si="75"/>
@@ -14800,7 +14794,7 @@
       </c>
       <c r="H172" t="str">
         <f t="shared" si="69"/>
-        <v>Registration</v>
+        <v>Scholarships</v>
       </c>
       <c r="I172">
         <f t="shared" si="70"/>
@@ -14808,11 +14802,11 @@
       </c>
       <c r="J172" t="str">
         <f t="shared" si="71"/>
-        <v>2014 15</v>
+        <v/>
       </c>
       <c r="K172">
         <f t="shared" si="72"/>
-        <v>52</v>
+        <v>-1</v>
       </c>
       <c r="L172" t="str">
         <f t="shared" si="73"/>
@@ -14824,15 +14818,15 @@
       </c>
       <c r="N172">
         <f t="shared" si="77"/>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="O172" t="str">
         <f t="shared" si="78"/>
-        <v>future-registration-form.pdf</v>
+        <v>scholarship-info.pdf</v>
       </c>
       <c r="P172" t="str">
         <f t="shared" si="79"/>
-        <v>future-registration-form</v>
+        <v>scholarship-info</v>
       </c>
       <c r="Q172" t="str">
         <f t="shared" si="80"/>
@@ -14840,7 +14834,7 @@
       </c>
       <c r="R172" t="str">
         <f t="shared" si="81"/>
-        <v>Future Registration Form</v>
+        <v>Scholarship Info</v>
       </c>
       <c r="S172" t="str">
         <f t="shared" si="74"/>
@@ -14848,16 +14842,16 @@
       </c>
       <c r="T172" t="str">
         <f t="shared" si="82"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-registration-form.pdf"&gt;Future Registration Form&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/scholarships/scholarship-info.pdf"&gt;Scholarship Info&lt;/a&gt;</v>
       </c>
       <c r="U172" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-registration-form.pdf"&gt;Future Registration Form&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/scholarships/scholarship-info.pdf"&gt;Scholarship Info&lt;/a&gt;</v>
       </c>
     </row>
     <row r="173" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C173">
         <f t="shared" si="75"/>
@@ -14881,7 +14875,7 @@
       </c>
       <c r="H173" t="str">
         <f t="shared" si="69"/>
-        <v>Registration</v>
+        <v>Scholarships</v>
       </c>
       <c r="I173">
         <f t="shared" si="70"/>
@@ -14889,11 +14883,11 @@
       </c>
       <c r="J173" t="str">
         <f t="shared" si="71"/>
-        <v>2014 15</v>
+        <v/>
       </c>
       <c r="K173">
         <f t="shared" si="72"/>
-        <v>52</v>
+        <v>-1</v>
       </c>
       <c r="L173" t="str">
         <f t="shared" si="73"/>
@@ -14905,15 +14899,15 @@
       </c>
       <c r="N173">
         <f t="shared" si="77"/>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="O173" t="str">
         <f t="shared" si="78"/>
-        <v>future-registration-guide.pdf</v>
+        <v>scholarship-list.pdf</v>
       </c>
       <c r="P173" t="str">
         <f t="shared" si="79"/>
-        <v>future-registration-guide</v>
+        <v>scholarship-list</v>
       </c>
       <c r="Q173" t="str">
         <f t="shared" si="80"/>
@@ -14921,7 +14915,7 @@
       </c>
       <c r="R173" t="str">
         <f t="shared" si="81"/>
-        <v>Future Registration Guide</v>
+        <v>Scholarship List</v>
       </c>
       <c r="S173" t="str">
         <f t="shared" si="74"/>
@@ -14929,16 +14923,16 @@
       </c>
       <c r="T173" t="str">
         <f t="shared" si="82"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-registration-guide.pdf"&gt;Future Registration Guide&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/scholarships/scholarship-list.pdf"&gt;Scholarship List&lt;/a&gt;</v>
       </c>
       <c r="U173" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/registration/2014-15/future-registration-guide.pdf"&gt;Future Registration Guide&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/scholarships/scholarship-list.pdf"&gt;Scholarship List&lt;/a&gt;</v>
       </c>
     </row>
     <row r="174" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C174">
         <f t="shared" si="75"/>
@@ -14990,11 +14984,11 @@
       </c>
       <c r="O174" t="str">
         <f t="shared" si="78"/>
-        <v>4-step-process.pdf</v>
+        <v>scholarship-tips.pdf</v>
       </c>
       <c r="P174" t="str">
         <f t="shared" si="79"/>
-        <v>4-step-process</v>
+        <v>scholarship-tips</v>
       </c>
       <c r="Q174" t="str">
         <f t="shared" si="80"/>
@@ -15002,24 +14996,24 @@
       </c>
       <c r="R174" t="str">
         <f t="shared" si="81"/>
-        <v>4 Step Process</v>
+        <v>Scholarship Tips</v>
       </c>
       <c r="S174" t="str">
         <f t="shared" si="74"/>
-        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspScholarships&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
       </c>
       <c r="T174" t="str">
         <f t="shared" si="82"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/scholarships/4-step-process.pdf"&gt;4 Step Process&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/scholarships/scholarship-tips.pdf"&gt;Scholarship Tips&lt;/a&gt;</v>
       </c>
       <c r="U174" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;br&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspScholarships&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/scholarships/4-step-process.pdf"&gt;4 Step Process&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/scholarships/scholarship-tips.pdf"&gt;Scholarship Tips&lt;/a&gt;</v>
       </c>
     </row>
     <row r="175" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C175">
         <f t="shared" si="75"/>
@@ -15035,19 +15029,19 @@
       </c>
       <c r="F175" t="str">
         <f t="shared" si="67"/>
-        <v>Student Services</v>
+        <v>Transportation</v>
       </c>
       <c r="G175">
         <f t="shared" si="68"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H175" t="str">
         <f t="shared" si="69"/>
-        <v>Scholarships</v>
+        <v>Pdf Files</v>
       </c>
       <c r="I175">
         <f t="shared" si="70"/>
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J175" t="str">
         <f t="shared" si="71"/>
@@ -15067,15 +15061,15 @@
       </c>
       <c r="N175">
         <f t="shared" si="77"/>
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O175" t="str">
         <f t="shared" si="78"/>
-        <v>scholarship-5ws.pdf</v>
+        <v>rebate-info.pdf</v>
       </c>
       <c r="P175" t="str">
         <f t="shared" si="79"/>
-        <v>scholarship-5ws</v>
+        <v>rebate-info</v>
       </c>
       <c r="Q175" t="str">
         <f t="shared" si="80"/>
@@ -15083,24 +15077,24 @@
       </c>
       <c r="R175" t="str">
         <f t="shared" si="81"/>
-        <v>Scholarship 5Ws</v>
+        <v>Rebate Info</v>
       </c>
       <c r="S175" t="str">
         <f t="shared" si="74"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
+        <v>&lt;br&gt;&lt;h3&gt;Transportation&lt;/h3&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspPdf Files&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
       </c>
       <c r="T175" t="str">
         <f t="shared" si="82"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/scholarships/scholarship-5ws.pdf"&gt;Scholarship 5Ws&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/transportation/pdf-files/rebate-info.pdf"&gt;Rebate Info&lt;/a&gt;</v>
       </c>
       <c r="U175" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/scholarships/scholarship-5ws.pdf"&gt;Scholarship 5Ws&lt;/a&gt;</v>
+        <v>&lt;br&gt;&lt;h3&gt;Transportation&lt;/h3&gt;&lt;h4&gt;&amp;nbsp&amp;nbsp&amp;nbspPdf Files&lt;/h4&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/transportation/pdf-files/rebate-info.pdf"&gt;Rebate Info&lt;/a&gt;</v>
       </c>
     </row>
     <row r="176" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="C176">
         <f t="shared" si="75"/>
@@ -15116,19 +15110,19 @@
       </c>
       <c r="F176" t="str">
         <f t="shared" si="67"/>
-        <v>Student Services</v>
+        <v>Transportation</v>
       </c>
       <c r="G176">
         <f t="shared" si="68"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H176" t="str">
         <f t="shared" si="69"/>
-        <v>Scholarships</v>
+        <v>Pdf Files</v>
       </c>
       <c r="I176">
         <f t="shared" si="70"/>
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J176" t="str">
         <f t="shared" si="71"/>
@@ -15148,15 +15142,15 @@
       </c>
       <c r="N176">
         <f t="shared" si="77"/>
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O176" t="str">
         <f t="shared" si="78"/>
-        <v>scholarship-info.pdf</v>
+        <v>rebate-process.pdf</v>
       </c>
       <c r="P176" t="str">
         <f t="shared" si="79"/>
-        <v>scholarship-info</v>
+        <v>rebate-process</v>
       </c>
       <c r="Q176" t="str">
         <f t="shared" si="80"/>
@@ -15164,7 +15158,7 @@
       </c>
       <c r="R176" t="str">
         <f t="shared" si="81"/>
-        <v>Scholarship Info</v>
+        <v>Rebate Process</v>
       </c>
       <c r="S176" t="str">
         <f t="shared" si="74"/>
@@ -15172,173 +15166,11 @@
       </c>
       <c r="T176" t="str">
         <f t="shared" si="82"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/scholarships/scholarship-info.pdf"&gt;Scholarship Info&lt;/a&gt;</v>
+        <v>&lt;a target="_blank" href="/b829/aberhart/transportation/pdf-files/rebate-process.pdf"&gt;Rebate Process&lt;/a&gt;</v>
       </c>
       <c r="U176" t="str">
         <f t="shared" si="83"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/scholarships/scholarship-info.pdf"&gt;Scholarship Info&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="177" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
-        <v>175</v>
-      </c>
-      <c r="C177">
-        <f t="shared" si="75"/>
-        <v>5</v>
-      </c>
-      <c r="D177" t="str">
-        <f t="shared" si="65"/>
-        <v>Aberhart</v>
-      </c>
-      <c r="E177">
-        <f t="shared" si="66"/>
-        <v>14</v>
-      </c>
-      <c r="F177" t="str">
-        <f t="shared" si="67"/>
-        <v>Student Services</v>
-      </c>
-      <c r="G177">
-        <f t="shared" si="68"/>
-        <v>31</v>
-      </c>
-      <c r="H177" t="str">
-        <f t="shared" si="69"/>
-        <v>Scholarships</v>
-      </c>
-      <c r="I177">
-        <f t="shared" si="70"/>
-        <v>44</v>
-      </c>
-      <c r="J177" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="K177">
-        <f t="shared" si="72"/>
-        <v>-1</v>
-      </c>
-      <c r="L177" t="str">
-        <f t="shared" si="73"/>
-        <v/>
-      </c>
-      <c r="M177">
-        <f t="shared" si="76"/>
-        <v>-1</v>
-      </c>
-      <c r="N177">
-        <f t="shared" si="77"/>
-        <v>44</v>
-      </c>
-      <c r="O177" t="str">
-        <f t="shared" si="78"/>
-        <v>scholarship-list.pdf</v>
-      </c>
-      <c r="P177" t="str">
-        <f t="shared" si="79"/>
-        <v>scholarship-list</v>
-      </c>
-      <c r="Q177" t="str">
-        <f t="shared" si="80"/>
-        <v>.pdf</v>
-      </c>
-      <c r="R177" t="str">
-        <f t="shared" si="81"/>
-        <v>Scholarship List</v>
-      </c>
-      <c r="S177" t="str">
-        <f t="shared" si="74"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
-      </c>
-      <c r="T177" t="str">
-        <f t="shared" si="82"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/scholarships/scholarship-list.pdf"&gt;Scholarship List&lt;/a&gt;</v>
-      </c>
-      <c r="U177" t="str">
-        <f t="shared" si="83"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/scholarships/scholarship-list.pdf"&gt;Scholarship List&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="178" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
-        <v>176</v>
-      </c>
-      <c r="C178">
-        <f t="shared" si="75"/>
-        <v>5</v>
-      </c>
-      <c r="D178" t="str">
-        <f t="shared" si="65"/>
-        <v>Aberhart</v>
-      </c>
-      <c r="E178">
-        <f t="shared" si="66"/>
-        <v>14</v>
-      </c>
-      <c r="F178" t="str">
-        <f t="shared" si="67"/>
-        <v>Student Services</v>
-      </c>
-      <c r="G178">
-        <f t="shared" si="68"/>
-        <v>31</v>
-      </c>
-      <c r="H178" t="str">
-        <f t="shared" si="69"/>
-        <v>Scholarships</v>
-      </c>
-      <c r="I178">
-        <f t="shared" si="70"/>
-        <v>44</v>
-      </c>
-      <c r="J178" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="K178">
-        <f t="shared" si="72"/>
-        <v>-1</v>
-      </c>
-      <c r="L178" t="str">
-        <f t="shared" si="73"/>
-        <v/>
-      </c>
-      <c r="M178">
-        <f t="shared" si="76"/>
-        <v>-1</v>
-      </c>
-      <c r="N178">
-        <f t="shared" si="77"/>
-        <v>44</v>
-      </c>
-      <c r="O178" t="str">
-        <f t="shared" si="78"/>
-        <v>scholarship-tips.pdf</v>
-      </c>
-      <c r="P178" t="str">
-        <f t="shared" si="79"/>
-        <v>scholarship-tips</v>
-      </c>
-      <c r="Q178" t="str">
-        <f t="shared" si="80"/>
-        <v>.pdf</v>
-      </c>
-      <c r="R178" t="str">
-        <f t="shared" si="81"/>
-        <v>Scholarship Tips</v>
-      </c>
-      <c r="S178" t="str">
-        <f t="shared" si="74"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp</v>
-      </c>
-      <c r="T178" t="str">
-        <f t="shared" si="82"/>
-        <v>&lt;a target="_blank" href="/b829/aberhart/student-services/scholarships/scholarship-tips.pdf"&gt;Scholarship Tips&lt;/a&gt;</v>
-      </c>
-      <c r="U178" t="str">
-        <f t="shared" si="83"/>
-        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/student-services/scholarships/scholarship-tips.pdf"&gt;Scholarship Tips&lt;/a&gt;</v>
+        <v>&lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;a target="_blank" href="/b829/aberhart/transportation/pdf-files/rebate-process.pdf"&gt;Rebate Process&lt;/a&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -15357,10 +15189,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A175"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <sortState ref="A1:A175">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
